--- a/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
+++ b/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t>交易输入</t>
   </si>
@@ -91,6 +91,17 @@
   <si>
     <t>张三李四各出一半共同
 向王五支付5比特币</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  张三挖到
+12.5比特币</t>
+  </si>
+  <si>
+    <t>张三向李四
+支付2.5比特币</t>
+  </si>
+  <si>
+    <t>张三李四各出一半共同向王五支付5比特币</t>
   </si>
 </sst>
 </file>
@@ -203,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -263,11 +274,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -292,6 +321,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,22 +353,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,6 +1085,165 @@
         <a:xfrm rot="10800000">
           <a:off x="10477500" y="3838575"/>
           <a:ext cx="1285875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5354AF-AC54-4CC4-BE16-1F2FFDBA7004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="2247900"/>
+          <a:ext cx="1295400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8044303-8E9D-4579-AAB6-C0F2923392F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16125825" y="2247900"/>
+          <a:ext cx="885825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3619F7-7283-41AC-BD66-5125B0C38850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18145125" y="2247900"/>
+          <a:ext cx="952500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1372,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X19"/>
+  <dimension ref="B1:AO19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -1396,18 +1593,30 @@
     <col min="14" max="14" width="7.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="7.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="0.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="20" style="1" customWidth="1"/>
-    <col min="21" max="21" width="1.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="0.5703125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="1"/>
+    <col min="26" max="26" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="0.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="0.5703125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1" style="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" style="1" customWidth="1"/>
+    <col min="35" max="36" width="9.140625" style="1"/>
+    <col min="37" max="37" width="0.42578125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="14" style="1" customWidth="1"/>
+    <col min="39" max="39" width="0.7109375" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:41">
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1423,58 +1632,58 @@
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="2:24" s="8" customFormat="1" ht="18">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:41" s="8" customFormat="1" ht="18">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="2:24" s="7" customFormat="1" ht="18">
+    <row r="3" spans="2:41" s="7" customFormat="1" ht="18">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="13"/>
       <c r="G3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="13"/>
       <c r="L3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:41">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1486,7 +1695,7 @@
       <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -1511,8 +1720,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:24">
-      <c r="B5" s="17"/>
+    <row r="5" spans="2:41">
+      <c r="B5" s="24"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1522,7 +1731,7 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1545,8 +1754,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:24">
-      <c r="G6" s="18"/>
+    <row r="6" spans="2:41">
+      <c r="G6" s="25"/>
       <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1567,148 +1776,282 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:24" s="8" customFormat="1" ht="18">
-      <c r="Q9" s="22" t="s">
+    <row r="8" spans="2:41">
+      <c r="AL8" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:41" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="Q9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="22" t="s">
+      <c r="V9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W9" s="22" t="s">
+      <c r="W9" s="16" t="s">
         <v>18</v>
       </c>
+      <c r="Z9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="26"/>
+      <c r="AN9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO9" s="16" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="2:24" ht="18">
-      <c r="Q10" s="20" t="s">
+    <row r="10" spans="2:41" ht="17.25" customHeight="1">
+      <c r="Q10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="14">
         <v>0</v>
       </c>
-      <c r="S10" s="24"/>
-      <c r="T10" s="21" t="s">
+      <c r="S10" s="18"/>
+      <c r="T10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="U10" s="24"/>
-      <c r="V10" s="20" t="s">
+      <c r="U10" s="18"/>
+      <c r="V10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="14">
         <v>12.5</v>
       </c>
+      <c r="Z10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="14">
+        <v>10</v>
+      </c>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="26"/>
+      <c r="AN10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO10" s="14">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="11" spans="2:24">
-      <c r="Q11" s="20" t="s">
+    <row r="11" spans="2:41">
+      <c r="Q11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="14">
         <v>0</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="20" t="s">
+      <c r="S11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W11" s="14">
         <v>0</v>
       </c>
+      <c r="Z11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AN11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO11" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:24">
-      <c r="Q12" s="20" t="s">
+    <row r="12" spans="2:41">
+      <c r="Q12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="14">
         <v>0</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="20" t="s">
+      <c r="S12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W12" s="14">
         <v>0</v>
       </c>
+      <c r="Z12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO12" s="14">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="2:24" ht="9.75" customHeight="1"/>
-    <row r="14" spans="2:24" ht="18">
-      <c r="X14" s="23" t="s">
+    <row r="13" spans="2:41" ht="9.75" customHeight="1"/>
+    <row r="14" spans="2:41" ht="18">
+      <c r="X14" s="17" t="s">
         <v>20</v>
       </c>
+      <c r="AG14" s="17"/>
     </row>
-    <row r="15" spans="2:24" ht="10.5" customHeight="1"/>
-    <row r="16" spans="2:24" ht="18">
-      <c r="Q16" s="22" t="s">
+    <row r="15" spans="2:41" ht="10.5" customHeight="1"/>
+    <row r="16" spans="2:41" ht="18">
+      <c r="Q16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="S16" s="8"/>
-      <c r="T16" s="25" t="s">
+      <c r="T16" s="20" t="s">
         <v>21</v>
       </c>
       <c r="U16" s="8"/>
-      <c r="V16" s="22" t="s">
+      <c r="V16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W16" s="22" t="s">
+      <c r="W16" s="16" t="s">
         <v>18</v>
       </c>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="17:23">
-      <c r="Q17" s="20" t="s">
+    <row r="17" spans="17:30">
+      <c r="Q17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="14">
         <v>7.5</v>
       </c>
-      <c r="S17" s="24"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="20" t="s">
+      <c r="S17" s="18"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="W17" s="19">
+      <c r="W17" s="14">
         <v>10</v>
       </c>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="18"/>
     </row>
-    <row r="18" spans="17:23">
-      <c r="Q18" s="20" t="s">
+    <row r="18" spans="17:30">
+      <c r="Q18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R18" s="14">
         <v>0</v>
       </c>
-      <c r="S18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="20" t="s">
+      <c r="S18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="W18" s="19">
+      <c r="W18" s="14">
         <v>2.5</v>
       </c>
+      <c r="AB18" s="18"/>
+      <c r="AD18" s="18"/>
     </row>
-    <row r="19" spans="17:23">
-      <c r="Q19" s="20" t="s">
+    <row r="19" spans="17:30">
+      <c r="Q19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R19" s="19">
+      <c r="R19" s="14">
         <v>5</v>
       </c>
-      <c r="S19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="20" t="s">
+      <c r="S19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="W19" s="19">
+      <c r="W19" s="14">
         <v>0</v>
       </c>
+      <c r="AB19" s="18"/>
+      <c r="AD19" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="AL8:AL10"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AC9:AC10"/>
     <mergeCell ref="T16:T17"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="M3:O3"/>

--- a/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
+++ b/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>交易输入</t>
   </si>
@@ -83,22 +83,11 @@
     <t>余额</t>
   </si>
   <si>
-    <t>张三挖到12.5比特币</t>
-  </si>
-  <si>
     <t>张三向李四支付2.5比特币</t>
   </si>
   <si>
-    <t>张三李四各出一半共同
-向王五支付5比特币</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  张三挖到
+    <t>张三挖到
 12.5比特币</t>
-  </si>
-  <si>
-    <t>张三向李四
-支付2.5比特币</t>
   </si>
   <si>
     <t>张三李四各出一半共同向王五支付5比特币</t>
@@ -335,9 +324,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,6 +348,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,59 +370,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C24C84-0416-4034-A915-A40F3237B707}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12363450" y="2743200"/>
-          <a:ext cx="0" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="stealth" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1006,23 +942,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79028CA-B74E-4E42-83FC-940B88517236}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5354AF-AC54-4CC4-BE16-1F2FFDBA7004}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1030,8 +966,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10382250" y="2257425"/>
-          <a:ext cx="1447800" cy="0"/>
+          <a:off x="14373225" y="2495550"/>
+          <a:ext cx="647700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1059,122 +995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EDC39B-A521-409C-AF8C-4877ECBD119C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="10477500" y="3838575"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="stealth" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5354AF-AC54-4CC4-BE16-1F2FFDBA7004}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10334625" y="2247900"/>
-          <a:ext cx="1295400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="stealth" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1189,7 +1019,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16125825" y="2247900"/>
+          <a:off x="16011525" y="2495550"/>
           <a:ext cx="885825" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1218,16 +1048,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1242,7 +1072,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18145125" y="2247900"/>
+          <a:off x="18145125" y="2495550"/>
           <a:ext cx="952500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1569,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AO19"/>
+  <dimension ref="B1:AG19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -1592,31 +1422,23 @@
     <col min="13" max="13" width="8.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="0.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20" style="1" customWidth="1"/>
-    <col min="21" max="21" width="0.5703125" style="1" customWidth="1"/>
-    <col min="22" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="0.42578125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="0.5703125" style="1" customWidth="1"/>
-    <col min="31" max="32" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="1" style="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" style="1" customWidth="1"/>
-    <col min="35" max="36" width="9.140625" style="1"/>
-    <col min="37" max="37" width="0.42578125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="14" style="1" customWidth="1"/>
-    <col min="39" max="39" width="0.7109375" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="0.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="0.5703125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="0.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14" style="1" customWidth="1"/>
+    <col min="31" max="31" width="0.7109375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41">
+    <row r="1" spans="2:33">
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1632,58 +1454,58 @@
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="2:41" s="8" customFormat="1" ht="18">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:33" s="8" customFormat="1" ht="18">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="2:41" s="7" customFormat="1" ht="18">
+    <row r="3" spans="2:33" s="7" customFormat="1" ht="18">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="13"/>
       <c r="G3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="13"/>
       <c r="L3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="2:41">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="2:33">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1695,7 +1517,7 @@
       <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -1720,8 +1542,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:41">
-      <c r="B5" s="24"/>
+    <row r="5" spans="2:33">
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1731,7 +1553,7 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1754,8 +1576,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:41">
-      <c r="G6" s="25"/>
+    <row r="6" spans="2:33">
+      <c r="G6" s="24"/>
       <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1776,283 +1598,165 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:41">
-      <c r="AL8" s="26" t="s">
-        <v>24</v>
+    <row r="8" spans="2:33" ht="17.25" customHeight="1">
+      <c r="AD8" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:41" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="Q9" s="16" t="s">
+    <row r="9" spans="2:33" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="R9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="S9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="16" t="s">
+      <c r="U9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="X9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="16" t="s">
+      <c r="Z9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AA9" s="16" t="s">
+      <c r="AB9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE9" s="16" t="s">
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="25"/>
+      <c r="AF9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AF9" s="16" t="s">
+      <c r="AG9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AH9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="26"/>
-      <c r="AN9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO9" s="16" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="10" spans="2:41" ht="17.25" customHeight="1">
-      <c r="Q10" s="15" t="s">
+    <row r="10" spans="2:33" ht="17.25" customHeight="1">
+      <c r="R10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="14">
+      <c r="S10" s="14">
         <v>0</v>
       </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10" s="18"/>
-      <c r="V10" s="15" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="14">
+      <c r="X10" s="14">
         <v>12.5</v>
       </c>
-      <c r="Z10" s="15" t="s">
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AB10" s="14">
+        <v>10</v>
+      </c>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="25"/>
+      <c r="AF10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="14">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33">
+      <c r="R11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="14">
         <v>0</v>
       </c>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="15" t="s">
+      <c r="T11" s="18"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AD11" s="25"/>
+      <c r="AF11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33">
+      <c r="R12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG12" s="14">
         <v>5</v>
       </c>
-      <c r="AF10" s="14">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ10" s="14">
-        <v>10</v>
-      </c>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="26"/>
-      <c r="AN10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO10" s="14">
-        <v>7.5</v>
-      </c>
     </row>
-    <row r="11" spans="2:41">
-      <c r="Q11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="14">
-        <v>0</v>
-      </c>
-      <c r="S11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="W11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ11" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="AN11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO11" s="14">
-        <v>0</v>
-      </c>
+    <row r="13" spans="2:33" ht="9.75" customHeight="1"/>
+    <row r="14" spans="2:33" ht="18">
+      <c r="Y14" s="17"/>
     </row>
-    <row r="12" spans="2:41">
-      <c r="Q12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="14">
-        <v>0</v>
-      </c>
-      <c r="S12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="W12" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO12" s="14">
-        <v>5</v>
-      </c>
+    <row r="15" spans="2:33" ht="10.5" customHeight="1"/>
+    <row r="16" spans="2:33" ht="18" customHeight="1">
+      <c r="T16" s="8"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="8"/>
     </row>
-    <row r="13" spans="2:41" ht="9.75" customHeight="1"/>
-    <row r="14" spans="2:41" ht="18">
-      <c r="X14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG14" s="17"/>
+    <row r="17" spans="20:22" ht="17.25" customHeight="1">
+      <c r="T17" s="18"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="18"/>
     </row>
-    <row r="15" spans="2:41" ht="10.5" customHeight="1"/>
-    <row r="16" spans="2:41" ht="18">
-      <c r="Q16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" s="8"/>
-      <c r="T16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="8"/>
-      <c r="V16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="8"/>
+    <row r="18" spans="20:22">
+      <c r="T18" s="18"/>
+      <c r="V18" s="18"/>
     </row>
-    <row r="17" spans="17:30">
-      <c r="Q17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="14">
-        <v>7.5</v>
-      </c>
-      <c r="S17" s="18"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="14">
-        <v>10</v>
-      </c>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="18"/>
-    </row>
-    <row r="18" spans="17:30">
-      <c r="Q18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="R18" s="14">
-        <v>0</v>
-      </c>
-      <c r="S18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="W18" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="AB18" s="18"/>
-      <c r="AD18" s="18"/>
-    </row>
-    <row r="19" spans="17:30">
-      <c r="Q19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="14">
-        <v>5</v>
-      </c>
-      <c r="S19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="W19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="18"/>
-      <c r="AD19" s="18"/>
+    <row r="19" spans="20:22">
+      <c r="T19" s="18"/>
+      <c r="V19" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="AL8:AL10"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="T16:T17"/>
+  <mergeCells count="12">
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AD8:AD11"/>
+    <mergeCell ref="U16:U17"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="B4:B5"/>

--- a/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
+++ b/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
@@ -107,7 +107,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -116,46 +130,23 @@
     <font>
       <b/>
       <i/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <i/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <i/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -164,7 +155,16 @@
     <font>
       <b/>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -287,69 +287,69 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1402,369 +1402,372 @@
   <dimension ref="B1:AG19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="0.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="0.5703125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="1" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" style="1" customWidth="1"/>
-    <col min="27" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="0.42578125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14" style="1" customWidth="1"/>
-    <col min="31" max="31" width="0.7109375" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8" style="5" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="5" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="5"/>
+    <col min="18" max="18" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="0.42578125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="0.5703125" style="5" customWidth="1"/>
+    <col min="23" max="24" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1" style="5" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="5"/>
+    <col min="28" max="28" width="6.85546875" style="5" customWidth="1"/>
+    <col min="29" max="29" width="0.42578125" style="5" customWidth="1"/>
+    <col min="30" max="30" width="14" style="5" customWidth="1"/>
+    <col min="31" max="31" width="0.7109375" style="5" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="5"/>
+    <col min="33" max="33" width="7.28515625" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33">
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="2:33" s="8" customFormat="1" ht="18">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:33" s="8" customFormat="1">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="20" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="20" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="2:33" s="7" customFormat="1" ht="18">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:33" s="12" customFormat="1" ht="15">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="12" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:33">
-      <c r="B5" s="23"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="19">
         <v>12.5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="19">
         <v>2.5</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="19">
         <v>5</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:33">
-      <c r="G6" s="24"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="19">
         <v>10</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="3" t="s">
+      <c r="L6" s="21"/>
+      <c r="M6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="19">
         <v>7.5</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:33" ht="17.25" customHeight="1">
-      <c r="AD8" s="25" t="s">
+      <c r="AD8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:33" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="R9" s="16" t="s">
+      <c r="R9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="U9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="W9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="16" t="s">
+      <c r="X9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="26" t="s">
+      <c r="Z9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA9" s="16" t="s">
+      <c r="AA9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AB9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="25"/>
-      <c r="AF9" s="16" t="s">
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="3"/>
+      <c r="AF9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AG9" s="16" t="s">
+      <c r="AG9" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:33" ht="17.25" customHeight="1">
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="25">
         <v>0</v>
       </c>
-      <c r="T10" s="18"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="15" t="s">
+      <c r="T10" s="26"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="25">
         <v>12.5</v>
       </c>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="15" t="s">
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AB10" s="25">
         <v>10</v>
       </c>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="25"/>
-      <c r="AF10" s="15" t="s">
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="3"/>
+      <c r="AF10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AG10" s="14">
+      <c r="AG10" s="25">
         <v>7.5</v>
       </c>
     </row>
     <row r="11" spans="2:33">
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="25">
         <v>0</v>
       </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="15" t="s">
+      <c r="T11" s="26"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="25">
         <v>0</v>
       </c>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="15" t="s">
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AB11" s="14">
+      <c r="AB11" s="25">
         <v>2.5</v>
       </c>
-      <c r="AD11" s="25"/>
-      <c r="AF11" s="15" t="s">
+      <c r="AD11" s="3"/>
+      <c r="AF11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AG11" s="14">
+      <c r="AG11" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:33">
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="25">
         <v>0</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="15" t="s">
+      <c r="T12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="25">
         <v>0</v>
       </c>
-      <c r="AA12" s="15" t="s">
+      <c r="AA12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AB12" s="14">
+      <c r="AB12" s="25">
         <v>0</v>
       </c>
-      <c r="AF12" s="15" t="s">
+      <c r="AF12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AG12" s="14">
+      <c r="AG12" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:33" ht="9.75" customHeight="1"/>
-    <row r="14" spans="2:33" ht="18">
-      <c r="Y14" s="17"/>
+    <row r="14" spans="2:33">
+      <c r="Y14" s="27"/>
     </row>
     <row r="15" spans="2:33" ht="10.5" customHeight="1"/>
     <row r="16" spans="2:33" ht="18" customHeight="1">
       <c r="T16" s="8"/>
-      <c r="U16" s="19"/>
+      <c r="U16" s="28"/>
       <c r="V16" s="8"/>
     </row>
     <row r="17" spans="20:22" ht="17.25" customHeight="1">
-      <c r="T17" s="18"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="18"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="26"/>
     </row>
     <row r="18" spans="20:22">
-      <c r="T18" s="18"/>
-      <c r="V18" s="18"/>
+      <c r="T18" s="26"/>
+      <c r="V18" s="26"/>
     </row>
     <row r="19" spans="20:22">
-      <c r="T19" s="18"/>
-      <c r="V19" s="18"/>
+      <c r="T19" s="26"/>
+      <c r="V19" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="U9:U11"/>
     <mergeCell ref="Z9:Z11"/>
     <mergeCell ref="AD8:AD11"/>
     <mergeCell ref="U16:U17"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
+++ b/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="交易-概念模型" sheetId="1" r:id="rId1"/>
+    <sheet name="交易-详细过程" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>交易输入</t>
   </si>
@@ -91,13 +92,61 @@
   </si>
   <si>
     <t>张三李四各出一半共同向王五支付5比特币</t>
+  </si>
+  <si>
+    <t>tx-input</t>
+  </si>
+  <si>
+    <t>tx0</t>
+  </si>
+  <si>
+    <t>tx-output</t>
+  </si>
+  <si>
+    <t>TXID</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>sig-script</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>pubkey-script</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>Someone pays 200 satoshis to Alice</t>
+  </si>
+  <si>
+    <t>Alice pays 200 satoshis to Bob</t>
+  </si>
+  <si>
+    <t>tx1</t>
+  </si>
+  <si>
+    <t>tx2</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t>zzzz</t>
+  </si>
+  <si>
+    <t>Bob pays 200 satoshis to Frank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +219,40 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -203,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -281,47 +364,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -348,8 +464,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,6 +540,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1080,6 +1269,1164 @@
         </a:prstGeom>
         <a:ln w="19050">
           <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121103</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4362450" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE49972-97B7-4959-B36A-8671CBC6035C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="2340428"/>
+          <a:ext cx="4362450" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OP_DUP OP_HASH160 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;Alice's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PubkeyHash&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OP_EQUALVERIFY OP_CHECKSIG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4391025" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF8E1E1-111F-42AB-AEE2-12562B214E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="3903890"/>
+          <a:ext cx="4391025" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OP_DUP OP_HASH160 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;Bob's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PubkeyHash&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OP_EQUALVERIFY OP_CHECKSIG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2177904" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72249E7-9331-4D23-91C2-32546211B7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="3895725"/>
+          <a:ext cx="2177904" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Alice's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Sig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;  &lt;Alice's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Full PubKey</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4429482" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BCB2828-0CA1-4AC4-B4F1-FD49A4B5F681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="5468711"/>
+          <a:ext cx="4429482" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OP_DUP OP_HASH160 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;Frank's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PubkeyHash&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OP_EQUALVERIFY OP_CHECKSIG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>445816</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1267227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57736</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Arc 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67EA476-8BCF-48BD-A324-5659B9F0C179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13425359">
+          <a:off x="1322116" y="1267227"/>
+          <a:ext cx="2659920" cy="2609863"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 184207"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>708231</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>838615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>569404</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>198069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Arc 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C82573-1697-4261-98FF-9B78C070A2D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13425359">
+          <a:off x="1584531" y="838615"/>
+          <a:ext cx="1613773" cy="1683554"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5596E3B-563B-4F9C-8BA0-9C5FC3593765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4286250" y="2209801"/>
+          <a:ext cx="981075" cy="1409699"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2075953" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9D0F1E-1E69-43B3-AA3A-4867770722F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="5467350"/>
+          <a:ext cx="2075953" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Bob's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Sig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;  &lt;Bob's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Full PubKey</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409768</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>446459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>224358</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Arc 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8531101D-06A0-447E-BF07-4CE70C0DD50C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13425359">
+          <a:off x="1286068" y="2665784"/>
+          <a:ext cx="2862590" cy="2678759"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 184207"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A88883-7F07-4586-A2FE-C78D2C5F4D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4276725" y="3648077"/>
+          <a:ext cx="981075" cy="1619248"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{429160B5-6806-411A-865E-BF293ABE2B02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="3752850"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F622880-76E1-4BBF-9ACB-526F9C6AEC85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="5334000"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0F7787-B4E4-4BCD-B07E-10C07CDD39D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="3752850"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16C0EB6-144E-4671-AE9D-8AE3269A17DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="5334000"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A5C411-4C99-448D-ACCC-F51989CECB48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="2286000"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1401,373 +2748,636 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="8" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8" style="5" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="5" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="5"/>
-    <col min="18" max="18" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="0.42578125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="0.5703125" style="5" customWidth="1"/>
-    <col min="23" max="24" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="1" style="5" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="5"/>
-    <col min="28" max="28" width="6.85546875" style="5" customWidth="1"/>
-    <col min="29" max="29" width="0.42578125" style="5" customWidth="1"/>
-    <col min="30" max="30" width="14" style="5" customWidth="1"/>
-    <col min="31" max="31" width="0.7109375" style="5" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="5"/>
-    <col min="33" max="33" width="7.28515625" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="0.42578125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="0.5703125" style="2" customWidth="1"/>
+    <col min="23" max="24" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="6.85546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="0.42578125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="14" style="2" customWidth="1"/>
+    <col min="31" max="31" width="0.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="2"/>
+    <col min="33" max="33" width="7.28515625" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="2:33" s="8" customFormat="1">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:33" s="4" customFormat="1">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
-    <row r="3" spans="2:33" s="12" customFormat="1" ht="15">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:33" s="7" customFormat="1" ht="15">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="9" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:33">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="11">
         <v>12.5</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="11">
         <v>2.5</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="11">
         <v>5</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:33">
-      <c r="G6" s="15"/>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="11">
         <v>10</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="18" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="11">
         <v>7.5</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:33" ht="17.25" customHeight="1">
-      <c r="AD8" s="3" t="s">
+      <c r="AD8" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:33" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="R9" s="22" t="s">
+    <row r="9" spans="2:33" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="R9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="22" t="s">
+      <c r="S9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="W9" s="22" t="s">
+      <c r="W9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="22" t="s">
+      <c r="X9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AA9" s="22" t="s">
+      <c r="AA9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AB9" s="22" t="s">
+      <c r="AB9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="3"/>
-      <c r="AF9" s="22" t="s">
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="27"/>
+      <c r="AF9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AG9" s="22" t="s">
+      <c r="AG9" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:33" ht="17.25" customHeight="1">
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10" s="17">
         <v>0</v>
       </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="24" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="25">
+      <c r="X10" s="17">
         <v>12.5</v>
       </c>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="24" t="s">
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AB10" s="25">
+      <c r="AB10" s="17">
         <v>10</v>
       </c>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="3"/>
-      <c r="AF10" s="24" t="s">
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="27"/>
+      <c r="AF10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AG10" s="25">
+      <c r="AG10" s="17">
         <v>7.5</v>
       </c>
     </row>
     <row r="11" spans="2:33">
-      <c r="R11" s="24" t="s">
+      <c r="R11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11" s="17">
         <v>0</v>
       </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="24" t="s">
+      <c r="T11" s="18"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="X11" s="25">
+      <c r="X11" s="17">
         <v>0</v>
       </c>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="24" t="s">
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB11" s="25">
+      <c r="AB11" s="17">
         <v>2.5</v>
       </c>
-      <c r="AD11" s="3"/>
-      <c r="AF11" s="24" t="s">
+      <c r="AD11" s="27"/>
+      <c r="AF11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AG11" s="25">
+      <c r="AG11" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:33">
-      <c r="R12" s="24" t="s">
+      <c r="R12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S12" s="17">
         <v>0</v>
       </c>
-      <c r="T12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="24" t="s">
+      <c r="T12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X12" s="25">
+      <c r="X12" s="17">
         <v>0</v>
       </c>
-      <c r="AA12" s="24" t="s">
+      <c r="AA12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AB12" s="25">
+      <c r="AB12" s="17">
         <v>0</v>
       </c>
-      <c r="AF12" s="24" t="s">
+      <c r="AF12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AG12" s="25">
+      <c r="AG12" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:33" ht="9.75" customHeight="1"/>
     <row r="14" spans="2:33">
-      <c r="Y14" s="27"/>
+      <c r="Y14" s="19"/>
     </row>
     <row r="15" spans="2:33" ht="10.5" customHeight="1"/>
     <row r="16" spans="2:33" ht="18" customHeight="1">
-      <c r="T16" s="8"/>
+      <c r="T16" s="4"/>
       <c r="U16" s="28"/>
-      <c r="V16" s="8"/>
+      <c r="V16" s="4"/>
     </row>
     <row r="17" spans="20:22" ht="17.25" customHeight="1">
-      <c r="T17" s="26"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="28"/>
-      <c r="V17" s="26"/>
+      <c r="V17" s="18"/>
     </row>
     <row r="18" spans="20:22">
-      <c r="T18" s="26"/>
-      <c r="V18" s="26"/>
+      <c r="T18" s="18"/>
+      <c r="V18" s="18"/>
     </row>
     <row r="19" spans="20:22">
-      <c r="T19" s="26"/>
-      <c r="V19" s="26"/>
+      <c r="T19" s="18"/>
+      <c r="V19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AD8:AD11"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="Z9:Z11"/>
-    <mergeCell ref="AD8:AD11"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="M3:O3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:H20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="13.140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" s="30" customFormat="1" ht="103.5" customHeight="1">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="3:8" s="30" customFormat="1">
+      <c r="C2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="3:8" s="30" customFormat="1">
+      <c r="C3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="3:8" s="30" customFormat="1">
+      <c r="C4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="3:8" s="41" customFormat="1">
+      <c r="C5" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="45" customFormat="1">
+      <c r="C6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44">
+        <v>200</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" s="30" customFormat="1" ht="35.25" customHeight="1"/>
+    <row r="8" spans="3:8" s="30" customFormat="1">
+      <c r="C8" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="3:8" s="30" customFormat="1">
+      <c r="C9" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="3:8" s="30" customFormat="1">
+      <c r="C10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="3:8" s="41" customFormat="1">
+      <c r="C11" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" s="45" customFormat="1">
+      <c r="C12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="42">
+        <v>0</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44">
+        <v>200</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" s="30" customFormat="1" ht="28.5" customHeight="1"/>
+    <row r="15" spans="3:8" s="30" customFormat="1">
+      <c r="C15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="3:8" s="30" customFormat="1">
+      <c r="C16" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="3:8" s="30" customFormat="1">
+      <c r="C17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="3:8" s="41" customFormat="1">
+      <c r="C18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" s="45" customFormat="1">
+      <c r="C19" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="42">
+        <v>0</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44">
+        <v>200</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" s="30" customFormat="1">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
+++ b/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
@@ -100,9 +100,6 @@
     <t>tx0</t>
   </si>
   <si>
-    <t>tx-output</t>
-  </si>
-  <si>
     <t>TXID</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Bob pays 200 satoshis to Frank</t>
+  </si>
+  <si>
+    <t>tx-output (UTXO)</t>
   </si>
 </sst>
 </file>
@@ -464,54 +464,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -532,6 +487,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1296,9 +1296,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>121103</xdr:rowOff>
+      <xdr:rowOff>111578</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4362450" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1314,7 +1314,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152900" y="2340428"/>
+          <a:off x="3943350" y="2330903"/>
           <a:ext cx="4362450" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1398,9 +1398,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:rowOff>112940</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4391025" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1416,7 +1416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4171950" y="3903890"/>
+          <a:off x="3962400" y="3684815"/>
           <a:ext cx="4391025" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1500,11 +1500,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2177904" cy="264560"/>
+    <xdr:ext cx="1942327" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3">
@@ -1518,8 +1518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1857375" y="3895725"/>
-          <a:ext cx="2177904" cy="264560"/>
+          <a:off x="1752600" y="3686175"/>
+          <a:ext cx="1942327" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1580,7 +1580,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&gt;  &lt;Alice's</a:t>
+            <a:t>&gt; &lt;Alice's</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -1592,7 +1592,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> Full PubKey</a:t>
+            <a:t> PubKey</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -1621,10 +1621,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>106136</xdr:rowOff>
+      <xdr:rowOff>96611</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4429482" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1640,7 +1640,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4162425" y="5468711"/>
+          <a:off x="3905250" y="5116286"/>
           <a:ext cx="4429482" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1918,7 +1918,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2075953" cy="264560"/>
+    <xdr:ext cx="1840376" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="TextBox 16">
@@ -1932,8 +1932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1857375" y="5467350"/>
-          <a:ext cx="2075953" cy="264560"/>
+          <a:off x="1857375" y="5124450"/>
+          <a:ext cx="1840376" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1994,7 +1994,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&gt;  &lt;Bob's</a:t>
+            <a:t>&gt; &lt;Bob's</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -2006,7 +2006,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> Full PubKey</a:t>
+            <a:t> PubKey</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -2805,57 +2805,57 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:33" s="4" customFormat="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="2:33" s="7" customFormat="1" ht="15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2867,7 +2867,7 @@
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -2893,7 +2893,7 @@
       </c>
     </row>
     <row r="5" spans="2:33">
-      <c r="B5" s="21"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2903,7 +2903,7 @@
       <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2927,7 +2927,7 @@
       </c>
     </row>
     <row r="6" spans="2:33">
-      <c r="G6" s="24"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
     </row>
     <row r="8" spans="2:33" ht="17.25" customHeight="1">
-      <c r="AD8" s="27" t="s">
+      <c r="AD8" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       <c r="S9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="U9" s="31" t="s">
         <v>20</v>
       </c>
       <c r="W9" s="14" t="s">
@@ -2969,7 +2969,7 @@
       <c r="X9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="26" t="s">
+      <c r="Z9" s="32" t="s">
         <v>19</v>
       </c>
       <c r="AA9" s="14" t="s">
@@ -2979,7 +2979,7 @@
         <v>18</v>
       </c>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="27"/>
+      <c r="AD9" s="33"/>
       <c r="AF9" s="14" t="s">
         <v>17</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="18"/>
-      <c r="U10" s="25"/>
+      <c r="U10" s="31"/>
       <c r="V10" s="18"/>
       <c r="W10" s="16" t="s">
         <v>5</v>
@@ -3003,7 +3003,7 @@
       <c r="X10" s="17">
         <v>12.5</v>
       </c>
-      <c r="Z10" s="26"/>
+      <c r="Z10" s="32"/>
       <c r="AA10" s="16" t="s">
         <v>5</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>10</v>
       </c>
       <c r="AC10" s="15"/>
-      <c r="AD10" s="27"/>
+      <c r="AD10" s="33"/>
       <c r="AF10" s="16" t="s">
         <v>5</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="18"/>
-      <c r="U11" s="25"/>
+      <c r="U11" s="31"/>
       <c r="V11" s="18"/>
       <c r="W11" s="16" t="s">
         <v>10</v>
@@ -3035,14 +3035,14 @@
       <c r="X11" s="17">
         <v>0</v>
       </c>
-      <c r="Z11" s="26"/>
+      <c r="Z11" s="32"/>
       <c r="AA11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AB11" s="17">
         <v>2.5</v>
       </c>
-      <c r="AD11" s="27"/>
+      <c r="AD11" s="33"/>
       <c r="AF11" s="16" t="s">
         <v>10</v>
       </c>
@@ -3085,12 +3085,12 @@
     <row r="15" spans="2:33" ht="10.5" customHeight="1"/>
     <row r="16" spans="2:33" ht="18" customHeight="1">
       <c r="T16" s="4"/>
-      <c r="U16" s="28"/>
+      <c r="U16" s="34"/>
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="20:22" ht="17.25" customHeight="1">
       <c r="T17" s="18"/>
-      <c r="U17" s="28"/>
+      <c r="U17" s="34"/>
       <c r="V17" s="18"/>
     </row>
     <row r="18" spans="20:22">
@@ -3103,18 +3103,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="U9:U11"/>
     <mergeCell ref="Z9:Z11"/>
     <mergeCell ref="AD8:AD11"/>
     <mergeCell ref="U16:U17"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3127,257 +3127,257 @@
   <dimension ref="C1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="13.140625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" style="30" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="2" width="13.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" s="30" customFormat="1" ht="103.5" customHeight="1">
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+    <row r="1" spans="3:8" ht="103.5" customHeight="1">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="3:8" s="30" customFormat="1">
-      <c r="C2" s="31" t="s">
+    <row r="2" spans="3:8">
+      <c r="C2" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="3:8" s="26" customFormat="1">
+      <c r="C5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="30" customFormat="1">
+      <c r="C6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29">
+        <v>200</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="35.25" customHeight="1"/>
+    <row r="8" spans="3:8">
+      <c r="C8" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
     </row>
-    <row r="3" spans="3:8" s="30" customFormat="1">
-      <c r="C3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+    <row r="9" spans="3:8">
+      <c r="C9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
     </row>
-    <row r="4" spans="3:8" s="30" customFormat="1">
-      <c r="C4" s="33" t="s">
+    <row r="10" spans="3:8">
+      <c r="C10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="3:8" s="26" customFormat="1">
+      <c r="C11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="D11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="3:8" s="41" customFormat="1">
-      <c r="C5" s="38" t="s">
+    <row r="12" spans="3:8" s="30" customFormat="1">
+      <c r="C12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29">
+        <v>200</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="28.5" customHeight="1"/>
+    <row r="15" spans="3:8">
+      <c r="C15" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="3:8" s="26" customFormat="1">
+      <c r="C18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="F18" s="24"/>
+      <c r="G18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40" t="s">
+      <c r="H18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="40" t="s">
+    </row>
+    <row r="19" spans="3:8" s="30" customFormat="1">
+      <c r="C19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>29</v>
       </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29">
+        <v>200</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="3:8" s="45" customFormat="1">
-      <c r="C6" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44">
-        <v>200</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" s="30" customFormat="1" ht="35.25" customHeight="1"/>
-    <row r="8" spans="3:8" s="30" customFormat="1">
-      <c r="C8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="3:8" s="30" customFormat="1">
-      <c r="C9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="3:8" s="30" customFormat="1">
-      <c r="C10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="37"/>
-    </row>
-    <row r="11" spans="3:8" s="41" customFormat="1">
-      <c r="C11" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" s="45" customFormat="1">
-      <c r="C12" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="42">
-        <v>0</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44">
-        <v>200</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" s="30" customFormat="1" ht="28.5" customHeight="1"/>
-    <row r="15" spans="3:8" s="30" customFormat="1">
-      <c r="C15" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="3:8" s="30" customFormat="1">
-      <c r="C16" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="3:8" s="30" customFormat="1">
-      <c r="C17" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="3:8" s="41" customFormat="1">
-      <c r="C18" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" s="45" customFormat="1">
-      <c r="C19" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="42">
-        <v>0</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44">
-        <v>200</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" s="30" customFormat="1">
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+    <row r="20" spans="3:8">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
+++ b/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="交易-概念模型" sheetId="1" r:id="rId1"/>
-    <sheet name="交易-详细过程" sheetId="2" r:id="rId2"/>
+    <sheet name="概念模型" sheetId="1" r:id="rId1"/>
+    <sheet name="详细过程" sheetId="2" r:id="rId2"/>
+    <sheet name="解锁过程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
   <si>
     <t>交易输入</t>
   </si>
@@ -141,12 +142,383 @@
   <si>
     <t>tx-output (UTXO)</t>
   </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>tx-in count</t>
+  </si>
+  <si>
+    <t>tx-out count</t>
+  </si>
+  <si>
+    <t>tx-output</t>
+  </si>
+  <si>
+    <t>locktime</t>
+  </si>
+  <si>
+    <t>script-bytes</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>Transaction Input</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Transaction Output</t>
+  </si>
+  <si>
+    <t>&lt;Sig&gt; &lt;PubKey&gt;</t>
+  </si>
+  <si>
+    <t>OP_DUP OP_HASH160 &lt;PubkeyHash&gt; OP_EQUALVERIFY OP_CHECKSIG</t>
+  </si>
+  <si>
+    <t>&lt;Sig&gt;</t>
+  </si>
+  <si>
+    <t>Execution continues, moving to the right with each step</t>
+  </si>
+  <si>
+    <t>Value &lt;Sig&gt; is pushed to the top of the stack</t>
+  </si>
+  <si>
+    <t>Execution starts</t>
+  </si>
+  <si>
+    <t>Value &lt;PubKey&gt; is pushed to the top of the stack, on top of &lt;Sig&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PubK&gt;</t>
+  </si>
+  <si>
+    <t>OP_DUP operator duplicates the top item in the stack</t>
+  </si>
+  <si>
+    <t>the resulting value is pushed to the top of the stack</t>
+  </si>
+  <si>
+    <t>OP_HASH160 operator hashes the top item in the stack with RIPEMD160(SHA256(PubK))</t>
+  </si>
+  <si>
+    <t>the resulting value (PubKHash) is pushed to the top of the stack</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Sig&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;PubK&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>OP_DUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OP_HASH160 &lt;PubKHash&gt; OP_EQUALVERIFY OP_CHECKSIG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Sig&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;PubK&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OP_DUP OP_HASH160 &lt;PubKHash&gt; OP_EQUALVERIFY OP_CHECKSIG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Sig&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;PubK&gt; OP_DUP OP_HASH160 &lt;PubKHash&gt; OP_EQUALVERIFY OP_CHECKSIG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Sig&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;PubK&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>OP_DUP OP_HASH160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;PubKHash&gt; OP_EQUALVERIFY OP_CHECKSIG</t>
+    </r>
+  </si>
+  <si>
+    <t>The value PubKHash from the script is pushed on top of the value PubKHash</t>
+  </si>
+  <si>
+    <t>calculated previously from the OP_HASH160 of the PubK</t>
+  </si>
+  <si>
+    <t>&lt;PubKHash&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Sig&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;PubK&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>OP_DUP OP_HASH160 &lt;PubKHash&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OP_EQUALVERIFY OP_CHECKSIG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Sig&gt; &lt;PubK&gt; OP_DUP OP_HASH160 &lt;PubKHash&gt; OP_EQUALVERIFY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>OP_CHECKSIG</t>
+    </r>
+  </si>
+  <si>
+    <t>The OP_EQUALVERIFY operator compares the PubKHash encumbering the transaction with the</t>
+  </si>
+  <si>
+    <t>PubKHash calculated from the user's PubK, if they match, both are removed and execution continues</t>
+  </si>
+  <si>
+    <t>The OP_CHECKSIG operator checks that the signature &lt;Sig&gt; matches the public key</t>
+  </si>
+  <si>
+    <t>&lt;PubK&gt; and pushes TRUE to the top of the stack if true</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Sig&gt; &lt;PubK&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OP_DUP OP_HASH160 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;PubKHash&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OP_EQUALVERIFY OP_CHECKSIG</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +625,47 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,8 +696,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF09252"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -421,11 +862,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,6 +1005,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -516,7 +1041,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,8 +1059,61 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,6 +1123,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF09252"/>
+      <color rgb="FF3399FF"/>
+      <color rgb="FF3366FF"/>
+      <color rgb="FF0066FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF0000"/>
     </mruColors>
@@ -1724,15 +2309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>445816</xdr:colOff>
+      <xdr:colOff>451878</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1267227</xdr:rowOff>
+      <xdr:rowOff>975903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57736</xdr:colOff>
+      <xdr:colOff>20133</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>124240</xdr:rowOff>
+      <xdr:rowOff>109141</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1747,8 +2332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="13425359">
-          <a:off x="1322116" y="1267227"/>
-          <a:ext cx="2659920" cy="2609863"/>
+          <a:off x="1328178" y="975903"/>
+          <a:ext cx="2616255" cy="2562238"/>
         </a:xfrm>
         <a:prstGeom prst="arc">
           <a:avLst>
@@ -1791,15 +2376,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>708231</xdr:colOff>
+      <xdr:colOff>690868</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>838615</xdr:rowOff>
+      <xdr:rowOff>701614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>569404</xdr:colOff>
+      <xdr:colOff>128308</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>198069</xdr:rowOff>
+      <xdr:rowOff>61068</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1814,11 +2399,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="13425359">
-          <a:off x="1584531" y="838615"/>
-          <a:ext cx="1613773" cy="1683554"/>
+          <a:off x="1567168" y="701614"/>
+          <a:ext cx="1190040" cy="1254929"/>
         </a:xfrm>
         <a:prstGeom prst="arc">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 91627"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -2036,15 +2624,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>409768</xdr:colOff>
+      <xdr:colOff>422356</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>446459</xdr:rowOff>
+      <xdr:rowOff>415111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>224358</xdr:colOff>
+      <xdr:colOff>146292</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>143893</xdr:rowOff>
+      <xdr:rowOff>112545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2059,8 +2647,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="13425359">
-          <a:off x="1286068" y="2665784"/>
-          <a:ext cx="2862590" cy="2678759"/>
+          <a:off x="1298656" y="2310586"/>
+          <a:ext cx="2771936" cy="2678759"/>
         </a:xfrm>
         <a:prstGeom prst="arc">
           <a:avLst>
@@ -2425,6 +3013,2480 @@
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
             </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C89E3A-5059-4941-A904-3E26204BA30E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10191750" y="6276975"/>
+          <a:ext cx="0" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783AA322-56EA-4CCD-85EA-19EF3D47CEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10934700" y="5676900"/>
+          <a:ext cx="0" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A591193-DF66-47BF-B338-CD91C9F18284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="12125325" y="6877050"/>
+          <a:ext cx="0" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEFB3A36-DDF7-4B10-AF4C-0F497A168466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="12677775" y="7486650"/>
+          <a:ext cx="0" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>328907</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61641</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="356893" cy="466090"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA078DE-FE06-462B-A0CA-1A810B2E8977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="938507" y="1061766"/>
+          <a:ext cx="356893" cy="466090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="587981" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171B3E8A-ABEB-4440-8682-AC0269E3FECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="295275"/>
+          <a:ext cx="587981" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SCRIPT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Right 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDB52AF-0F91-4D5A-A03C-4E8304986F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2245143" y="659982"/>
+          <a:ext cx="215066" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41667"/>
+            <a:gd name="adj2" fmla="val 47222"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12038</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>20055</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="716877" cy="262572"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EB96B0-86A4-4724-95A4-47A236E67E4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2012288" y="858255"/>
+          <a:ext cx="716877" cy="262572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXECUTION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="900"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POINTER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>615613</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1389</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>116399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Arrow: Right 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE29CFA-8D40-4914-B212-65369A6F1F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7770277">
+          <a:off x="1457085" y="867246"/>
+          <a:ext cx="998481" cy="147776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36301"/>
+            <a:gd name="adj2" fmla="val 88084"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>328907</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61641</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="356893" cy="466090"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B1278C-2D06-4E22-84AB-888C12579F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="938507" y="2547666"/>
+          <a:ext cx="356893" cy="466090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="587981" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CAD1BF-5B4E-4640-91D5-034EB44CB0A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="161925"/>
+          <a:ext cx="587981" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SCRIPT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Arrow: Right 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A11A87-1F44-46D4-82FF-A46AEECF259C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2807118" y="2145882"/>
+          <a:ext cx="215066" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41667"/>
+            <a:gd name="adj2" fmla="val 47222"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50138</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20055</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="716877" cy="262572"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D85177-EA7D-4296-B294-675A450B340F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2574263" y="2344155"/>
+          <a:ext cx="716877" cy="262572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXECUTION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="900"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POINTER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>328907</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61641</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="356893" cy="466090"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55742EF-14E8-4432-91D4-E68083AD9DDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="938507" y="4033566"/>
+          <a:ext cx="356893" cy="466090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="587981" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A5A813-A59B-4BA8-8A35-891603407BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="1647825"/>
+          <a:ext cx="587981" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SCRIPT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Arrow: Right 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E6C20E-830D-41AD-8EB0-89E8DCE4B70F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3359568" y="3631782"/>
+          <a:ext cx="215066" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41667"/>
+            <a:gd name="adj2" fmla="val 47222"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88238</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>20055</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="716877" cy="262572"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D3845A-70B8-4D9B-A6F0-DBD2D0611AA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3126713" y="3830055"/>
+          <a:ext cx="716877" cy="262572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXECUTION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="900"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POINTER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>328907</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>61641</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="356893" cy="466090"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C1BCF4-3B21-4FA4-95D4-FC8587143C4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="938507" y="5519466"/>
+          <a:ext cx="356893" cy="466090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="587981" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECE09DC-3B22-4E5D-89AC-59BC632C698F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="3133725"/>
+          <a:ext cx="587981" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SCRIPT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Arrow: Right 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23223CDB-184F-4FA6-B77D-FAEB8C1A65B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4045368" y="5117682"/>
+          <a:ext cx="215066" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41667"/>
+            <a:gd name="adj2" fmla="val 47222"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88238</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>20055</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="716877" cy="262572"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141AC064-3CCD-4FC1-8169-D22B8505B598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3812513" y="5315955"/>
+          <a:ext cx="716877" cy="262572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXECUTION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="900"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POINTER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>328907</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>61641</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="356893" cy="466090"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4F50BD-D5C8-4248-9FF3-00A0BF7ADB68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="938507" y="7005366"/>
+          <a:ext cx="356893" cy="466090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="587981" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2F4568-11A1-43B1-B421-98762E597CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="4619625"/>
+          <a:ext cx="587981" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SCRIPT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>15040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Arrow: Right 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D52A8B9-30A9-4A54-B8DA-88298D30CE37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4845468" y="6603582"/>
+          <a:ext cx="215066" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41667"/>
+            <a:gd name="adj2" fmla="val 47222"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31088</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>20055</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="716877" cy="262572"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C82C70E-8F67-4384-B1C3-E3C91E619871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4612613" y="6801855"/>
+          <a:ext cx="716877" cy="262572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXECUTION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="900"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POINTER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>328907</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>61641</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="356893" cy="466090"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109EABDF-559E-420B-B2BD-6CD3B43329D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="938507" y="8491266"/>
+          <a:ext cx="356893" cy="466090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="587981" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06AB7AD-7098-4375-91C2-20DC47641BAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="6105525"/>
+          <a:ext cx="587981" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SCRIPT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>15040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Arrow: Right 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17579667-4A54-455D-ABA0-EAB83EAD33D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5874168" y="8089482"/>
+          <a:ext cx="215066" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41667"/>
+            <a:gd name="adj2" fmla="val 47222"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>107288</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>20055</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="716877" cy="262572"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32EB5A0D-11D8-4967-BDB9-D89CAA6E2F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5641313" y="8287755"/>
+          <a:ext cx="716877" cy="262572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXECUTION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="900"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POINTER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>328907</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>61641</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="356893" cy="466090"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4CC21D-63E0-4FC2-8AAD-7932E0570555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="938507" y="9977166"/>
+          <a:ext cx="356893" cy="466090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="587981" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AF418F-C233-421F-B644-E429F5995DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="7591425"/>
+          <a:ext cx="587981" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SCRIPT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>15040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Arrow: Right 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E25726-88AE-4FE9-B205-BD2ED1428538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6902868" y="9575382"/>
+          <a:ext cx="215066" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41667"/>
+            <a:gd name="adj2" fmla="val 47222"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>69188</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>20055</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="716877" cy="262572"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AEB891D-0F65-4C29-BCD5-1078B494CADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6670013" y="9773655"/>
+          <a:ext cx="716877" cy="262572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXECUTION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="900"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>POINTER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3538918" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1F7CDA-BDB4-44ED-A712-31AB0BAA2F92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="714375"/>
+          <a:ext cx="3538918" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alice's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> &lt;Sig&gt; and &lt;Pubkey&gt; from sig-script in tx-input of </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tx1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>8455</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A73CD5-0248-4452-B323-3B1408041E38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="552450"/>
+          <a:ext cx="504825" cy="294205"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3595793" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="TextBox 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4583F18-08A8-4BB5-BA6A-1B6648B4AAD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="47625"/>
+          <a:ext cx="3595793" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alice's &lt;PubkeyHash&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> from pubkey-script in tx-output of </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tx0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>105455</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107497</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D95D3DF-1861-4875-BF40-A63335ADB8E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5007428" y="262911"/>
+          <a:ext cx="2042" cy="179321"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:tailEnd type="arrow"/>
         </a:ln>
@@ -2749,7 +5811,7 @@
   <dimension ref="B1:AG19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2805,57 +5867,57 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:33" s="4" customFormat="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="2:33" s="7" customFormat="1" ht="15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2867,7 +5929,7 @@
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="42" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -2893,7 +5955,7 @@
       </c>
     </row>
     <row r="5" spans="2:33">
-      <c r="B5" s="38"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2903,7 +5965,7 @@
       <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2927,7 +5989,7 @@
       </c>
     </row>
     <row r="6" spans="2:33">
-      <c r="G6" s="39"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2949,7 +6011,7 @@
       </c>
     </row>
     <row r="8" spans="2:33" ht="17.25" customHeight="1">
-      <c r="AD8" s="33" t="s">
+      <c r="AD8" s="36" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2960,7 +6022,7 @@
       <c r="S9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="U9" s="34" t="s">
         <v>20</v>
       </c>
       <c r="W9" s="14" t="s">
@@ -2969,7 +6031,7 @@
       <c r="X9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="32" t="s">
+      <c r="Z9" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AA9" s="14" t="s">
@@ -2979,7 +6041,7 @@
         <v>18</v>
       </c>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="33"/>
+      <c r="AD9" s="36"/>
       <c r="AF9" s="14" t="s">
         <v>17</v>
       </c>
@@ -2995,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="18"/>
-      <c r="U10" s="31"/>
+      <c r="U10" s="34"/>
       <c r="V10" s="18"/>
       <c r="W10" s="16" t="s">
         <v>5</v>
@@ -3003,7 +6065,7 @@
       <c r="X10" s="17">
         <v>12.5</v>
       </c>
-      <c r="Z10" s="32"/>
+      <c r="Z10" s="35"/>
       <c r="AA10" s="16" t="s">
         <v>5</v>
       </c>
@@ -3011,7 +6073,7 @@
         <v>10</v>
       </c>
       <c r="AC10" s="15"/>
-      <c r="AD10" s="33"/>
+      <c r="AD10" s="36"/>
       <c r="AF10" s="16" t="s">
         <v>5</v>
       </c>
@@ -3027,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="18"/>
-      <c r="U11" s="31"/>
+      <c r="U11" s="34"/>
       <c r="V11" s="18"/>
       <c r="W11" s="16" t="s">
         <v>10</v>
@@ -3035,14 +6097,14 @@
       <c r="X11" s="17">
         <v>0</v>
       </c>
-      <c r="Z11" s="32"/>
+      <c r="Z11" s="35"/>
       <c r="AA11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AB11" s="17">
         <v>2.5</v>
       </c>
-      <c r="AD11" s="33"/>
+      <c r="AD11" s="36"/>
       <c r="AF11" s="16" t="s">
         <v>10</v>
       </c>
@@ -3085,12 +6147,12 @@
     <row r="15" spans="2:33" ht="10.5" customHeight="1"/>
     <row r="16" spans="2:33" ht="18" customHeight="1">
       <c r="T16" s="4"/>
-      <c r="U16" s="34"/>
+      <c r="U16" s="37"/>
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="20:22" ht="17.25" customHeight="1">
       <c r="T17" s="18"/>
-      <c r="U17" s="34"/>
+      <c r="U17" s="37"/>
       <c r="V17" s="18"/>
     </row>
     <row r="18" spans="20:22">
@@ -3124,10 +6186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H20"/>
+  <dimension ref="C1:AZ31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BL39" sqref="BL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3139,10 +6201,13 @@
     <col min="6" max="6" width="0.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="21"/>
+    <col min="9" max="11" width="9.140625" style="21"/>
+    <col min="12" max="41" width="2.42578125" style="21" customWidth="1"/>
+    <col min="42" max="69" width="2.140625" style="21" customWidth="1"/>
+    <col min="70" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="103.5" customHeight="1">
+    <row r="1" spans="3:8" ht="78" customHeight="1">
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -3151,36 +6216,36 @@
       <c r="H1" s="20"/>
     </row>
     <row r="2" spans="3:8">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="3:8" s="26" customFormat="1">
       <c r="C5" s="23" t="s">
@@ -3220,36 +6285,36 @@
     </row>
     <row r="7" spans="3:8" ht="35.25" customHeight="1"/>
     <row r="8" spans="3:8">
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="3:8" s="26" customFormat="1">
       <c r="C11" s="23" t="s">
@@ -3289,38 +6354,38 @@
     </row>
     <row r="14" spans="3:8" ht="28.5" customHeight="1"/>
     <row r="15" spans="3:8">
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="41" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="3:52">
+      <c r="C17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="44"/>
-    </row>
-    <row r="18" spans="3:8" s="26" customFormat="1">
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="3:52" s="26" customFormat="1">
       <c r="C18" s="23" t="s">
         <v>24</v>
       </c>
@@ -3338,7 +6403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="3:8" s="30" customFormat="1">
+    <row r="19" spans="3:52" s="30" customFormat="1">
       <c r="C19" s="27" t="s">
         <v>35</v>
       </c>
@@ -3356,7 +6421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:52">
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -3364,8 +6429,200 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
+    <row r="23" spans="3:52" ht="18.75" customHeight="1">
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="54"/>
+      <c r="AM23" s="54"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="32"/>
+    </row>
+    <row r="24" spans="3:52" ht="23.25" customHeight="1"/>
+    <row r="25" spans="3:52" s="31" customFormat="1" ht="24.75" customHeight="1">
+      <c r="M25" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="W25" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+    </row>
+    <row r="26" spans="3:52" ht="23.25" customHeight="1"/>
+    <row r="27" spans="3:52" s="31" customFormat="1" ht="24.75" customHeight="1">
+      <c r="N27" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="U27" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ27" s="51"/>
+      <c r="AR27" s="51"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="51"/>
+      <c r="AV27" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW27" s="51"/>
+      <c r="AX27" s="51"/>
+      <c r="AY27" s="51"/>
+      <c r="AZ27" s="51"/>
+    </row>
+    <row r="28" spans="3:52" ht="23.25" customHeight="1"/>
+    <row r="29" spans="3:52" ht="24.75" customHeight="1">
+      <c r="X29" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AI29" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
+      <c r="AO29" s="52"/>
+      <c r="AP29" s="52"/>
+      <c r="AQ29" s="52"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT29" s="52"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="52"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="52"/>
+    </row>
+    <row r="30" spans="3:52" ht="23.25" customHeight="1"/>
+    <row r="31" spans="3:52" ht="18.75" customHeight="1">
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="54"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="54"/>
+      <c r="AK31" s="54"/>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="54"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="54"/>
+      <c r="AT31" s="54"/>
+      <c r="AU31" s="54"/>
+      <c r="AV31" s="54"/>
+      <c r="AW31" s="54"/>
+      <c r="AX31" s="54"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="55"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="31">
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C17:E17"/>
@@ -3378,9 +6635,730 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
+    <mergeCell ref="M25:U25"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="X29:AG29"/>
+    <mergeCell ref="AV27:AZ27"/>
+    <mergeCell ref="AC25:AH25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="AI25:AM25"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AE27:AH27"/>
+    <mergeCell ref="AI27:AO27"/>
+    <mergeCell ref="AP27:AU27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AD27"/>
+    <mergeCell ref="AH23:AN23"/>
+    <mergeCell ref="X31:AZ31"/>
+    <mergeCell ref="AS29:AZ29"/>
+    <mergeCell ref="AL29:AR29"/>
+    <mergeCell ref="AI29:AK29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AM70"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX49" sqref="AX49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="57"/>
+    <col min="3" max="3" width="0.7109375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="56" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" style="56" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="57" customWidth="1"/>
+    <col min="7" max="22" width="2.5703125" style="57" customWidth="1"/>
+    <col min="23" max="35" width="2.28515625" style="57" customWidth="1"/>
+    <col min="36" max="40" width="3.140625" style="57" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:39" ht="14.25">
+      <c r="C2" s="63"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="61"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C3" s="63"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="4" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C4" s="64"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="62"/>
+      <c r="G4" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="68"/>
+    </row>
+    <row r="5" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C5" s="63"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="61"/>
+    </row>
+    <row r="6" spans="3:39">
+      <c r="C6" s="63"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="61"/>
+    </row>
+    <row r="7" spans="3:39">
+      <c r="C7" s="63"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="61"/>
+    </row>
+    <row r="8" spans="3:39">
+      <c r="C8" s="63"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="61"/>
+    </row>
+    <row r="9" spans="3:39">
+      <c r="C9" s="63"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="61"/>
+      <c r="G9" s="57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="3:39">
+      <c r="C10" s="63"/>
+      <c r="D10" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="G10" s="57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="3:39" ht="14.25">
+      <c r="C12" s="63"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+    </row>
+    <row r="13" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C13" s="63"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="61"/>
+    </row>
+    <row r="14" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C14" s="64"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="62"/>
+      <c r="G14" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="68"/>
+    </row>
+    <row r="15" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C15" s="63"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="61"/>
+    </row>
+    <row r="16" spans="3:39">
+      <c r="C16" s="63"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="61"/>
+    </row>
+    <row r="17" spans="3:39">
+      <c r="C17" s="63"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="61"/>
+    </row>
+    <row r="18" spans="3:39">
+      <c r="C18" s="63"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="61"/>
+    </row>
+    <row r="19" spans="3:39">
+      <c r="C19" s="63"/>
+      <c r="D19" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="61"/>
+      <c r="G19" s="57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="3:39">
+      <c r="C20" s="63"/>
+      <c r="D20" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="G20" s="57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="3:39" ht="14.25">
+      <c r="C22" s="63"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+    </row>
+    <row r="23" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C23" s="63"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C24" s="64"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="62"/>
+      <c r="G24" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="68"/>
+    </row>
+    <row r="25" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C25" s="63"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="61"/>
+    </row>
+    <row r="26" spans="3:39">
+      <c r="C26" s="63"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="61"/>
+    </row>
+    <row r="27" spans="3:39">
+      <c r="C27" s="63"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="61"/>
+    </row>
+    <row r="28" spans="3:39">
+      <c r="C28" s="63"/>
+      <c r="D28" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="61"/>
+    </row>
+    <row r="29" spans="3:39">
+      <c r="C29" s="63"/>
+      <c r="D29" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="61"/>
+      <c r="G29" s="57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="3:39">
+      <c r="C30" s="63"/>
+      <c r="D30" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="61"/>
+      <c r="G30" s="57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="3:39" ht="14.25">
+      <c r="C32" s="63"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="61"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+    </row>
+    <row r="33" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C33" s="63"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="61"/>
+    </row>
+    <row r="34" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C34" s="64"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="62"/>
+      <c r="G34" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="66"/>
+      <c r="AM34" s="68"/>
+    </row>
+    <row r="35" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C35" s="63"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="61"/>
+    </row>
+    <row r="36" spans="3:39">
+      <c r="C36" s="63"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="61"/>
+    </row>
+    <row r="37" spans="3:39">
+      <c r="C37" s="63"/>
+      <c r="D37" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="61"/>
+    </row>
+    <row r="38" spans="3:39">
+      <c r="C38" s="63"/>
+      <c r="D38" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="61"/>
+    </row>
+    <row r="39" spans="3:39">
+      <c r="C39" s="63"/>
+      <c r="D39" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="61"/>
+      <c r="G39" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="3:39">
+      <c r="C40" s="63"/>
+      <c r="D40" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="61"/>
+      <c r="G40" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="3:39" ht="14.25">
+      <c r="C42" s="63"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="61"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+    </row>
+    <row r="43" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C43" s="63"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="61"/>
+    </row>
+    <row r="44" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C44" s="64"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="62"/>
+      <c r="G44" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="66"/>
+      <c r="AL44" s="66"/>
+      <c r="AM44" s="68"/>
+    </row>
+    <row r="45" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C45" s="63"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="61"/>
+    </row>
+    <row r="46" spans="3:39">
+      <c r="C46" s="63"/>
+      <c r="D46" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="61"/>
+    </row>
+    <row r="47" spans="3:39">
+      <c r="C47" s="63"/>
+      <c r="D47" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="61"/>
+    </row>
+    <row r="48" spans="3:39">
+      <c r="C48" s="63"/>
+      <c r="D48" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="61"/>
+    </row>
+    <row r="49" spans="3:39">
+      <c r="C49" s="63"/>
+      <c r="D49" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="61"/>
+      <c r="G49" s="57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="3:39">
+      <c r="C50" s="63"/>
+      <c r="D50" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="61"/>
+      <c r="G50" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="3:39" ht="14.25">
+      <c r="C52" s="63"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="61"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+    </row>
+    <row r="53" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C53" s="63"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="61"/>
+    </row>
+    <row r="54" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C54" s="64"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="62"/>
+      <c r="G54" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="66"/>
+      <c r="T54" s="66"/>
+      <c r="U54" s="66"/>
+      <c r="V54" s="66"/>
+      <c r="W54" s="66"/>
+      <c r="X54" s="66"/>
+      <c r="Y54" s="66"/>
+      <c r="Z54" s="66"/>
+      <c r="AA54" s="66"/>
+      <c r="AB54" s="66"/>
+      <c r="AC54" s="66"/>
+      <c r="AD54" s="66"/>
+      <c r="AE54" s="66"/>
+      <c r="AF54" s="66"/>
+      <c r="AG54" s="66"/>
+      <c r="AH54" s="66"/>
+      <c r="AI54" s="66"/>
+      <c r="AJ54" s="66"/>
+      <c r="AK54" s="66"/>
+      <c r="AL54" s="66"/>
+      <c r="AM54" s="68"/>
+    </row>
+    <row r="55" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C55" s="63"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="61"/>
+    </row>
+    <row r="56" spans="3:39">
+      <c r="C56" s="63"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="61"/>
+    </row>
+    <row r="57" spans="3:39">
+      <c r="C57" s="63"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="61"/>
+    </row>
+    <row r="58" spans="3:39">
+      <c r="C58" s="63"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="61"/>
+    </row>
+    <row r="59" spans="3:39">
+      <c r="C59" s="63"/>
+      <c r="D59" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="61"/>
+      <c r="G59" s="57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="3:39">
+      <c r="C60" s="63"/>
+      <c r="D60" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="61"/>
+      <c r="G60" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="3:39" ht="14.25">
+      <c r="C62" s="63"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="61"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+    </row>
+    <row r="63" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C63" s="63"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="61"/>
+    </row>
+    <row r="64" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C64" s="64"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="62"/>
+      <c r="G64" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="66"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="66"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="66"/>
+      <c r="Z64" s="66"/>
+      <c r="AA64" s="66"/>
+      <c r="AB64" s="66"/>
+      <c r="AC64" s="66"/>
+      <c r="AD64" s="66"/>
+      <c r="AE64" s="66"/>
+      <c r="AF64" s="66"/>
+      <c r="AG64" s="66"/>
+      <c r="AH64" s="66"/>
+      <c r="AI64" s="66"/>
+      <c r="AJ64" s="66"/>
+      <c r="AK64" s="66"/>
+      <c r="AL64" s="66"/>
+      <c r="AM64" s="68"/>
+    </row>
+    <row r="65" spans="3:7" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C65" s="63"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="61"/>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" s="63"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="61"/>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="C67" s="63"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="61"/>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68" s="63"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="61"/>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" s="63"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="61"/>
+      <c r="G69" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="63"/>
+      <c r="D70" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="61"/>
+      <c r="G70" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G24:AL24"/>
+    <mergeCell ref="G34:AL34"/>
+    <mergeCell ref="G44:AL44"/>
+    <mergeCell ref="G54:AL54"/>
+    <mergeCell ref="G64:AL64"/>
+    <mergeCell ref="G4:AL4"/>
+    <mergeCell ref="G14:AL14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
+++ b/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>交易输入</t>
   </si>
@@ -146,19 +146,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>tx-in count</t>
-  </si>
-  <si>
-    <t>tx-out count</t>
-  </si>
-  <si>
-    <t>tx-output</t>
-  </si>
-  <si>
     <t>locktime</t>
-  </si>
-  <si>
-    <t>script-bytes</t>
   </si>
   <si>
     <t>sequence</t>
@@ -168,9 +156,6 @@
   </si>
   <si>
     <t>Transaction</t>
-  </si>
-  <si>
-    <t>Transaction Output</t>
   </si>
   <si>
     <t>&lt;Sig&gt; &lt;PubKey&gt;</t>
@@ -464,12 +449,6 @@
     </r>
   </si>
   <si>
-    <t>The OP_EQUALVERIFY operator compares the PubKHash encumbering the transaction with the</t>
-  </si>
-  <si>
-    <t>PubKHash calculated from the user's PubK, if they match, both are removed and execution continues</t>
-  </si>
-  <si>
     <t>The OP_CHECKSIG operator checks that the signature &lt;Sig&gt; matches the public key</t>
   </si>
   <si>
@@ -513,12 +492,56 @@
       <t xml:space="preserve"> OP_EQUALVERIFY OP_CHECKSIG</t>
     </r>
   </si>
+  <si>
+    <t>tx_in count</t>
+  </si>
+  <si>
+    <t>tx_in</t>
+  </si>
+  <si>
+    <t>tx_out count</t>
+  </si>
+  <si>
+    <t>tx_out</t>
+  </si>
+  <si>
+    <t>script-len</t>
+  </si>
+  <si>
+    <t>Transaction Output　</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>OP_EQUALVERIFY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> operator compares the PubKHash encumbering the transaction with the</t>
+    </r>
+  </si>
+  <si>
+    <t>PubKHash calculated from the PubK, if they match, both are removed and execution continues</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +684,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -941,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1014,72 +1043,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1106,14 +1069,89 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3282,9 +3320,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>328907</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>61641</xdr:rowOff>
+      <xdr:colOff>319382</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109266</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="356893" cy="466090"/>
     <xdr:sp macro="" textlink="">
@@ -3300,7 +3338,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="938507" y="1061766"/>
+          <a:off x="928982" y="899841"/>
           <a:ext cx="356893" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3344,9 +3382,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="587981" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3362,7 +3400,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1876425" y="295275"/>
+          <a:off x="2171700" y="123825"/>
           <a:ext cx="587981" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3406,15 +3444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:colOff>114302</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>15040</xdr:rowOff>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>125802</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3429,8 +3467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2245143" y="659982"/>
-          <a:ext cx="215066" cy="171449"/>
+          <a:off x="2299569" y="632514"/>
+          <a:ext cx="165521" cy="172527"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3468,8 +3506,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12038</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>20055</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>131484</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716877" cy="262572"/>
     <xdr:sp macro="" textlink="">
@@ -3485,7 +3523,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2012288" y="858255"/>
+          <a:off x="2042840" y="807220"/>
           <a:ext cx="716877" cy="262572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3617,9 +3655,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>328907</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>61641</xdr:rowOff>
+      <xdr:colOff>319382</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109266</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="356893" cy="466090"/>
     <xdr:sp macro="" textlink="">
@@ -3635,7 +3673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="938507" y="2547666"/>
+          <a:off x="928982" y="2157141"/>
           <a:ext cx="356893" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3679,9 +3717,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="587981" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3697,7 +3735,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933575" y="161925"/>
+          <a:off x="2171700" y="1381125"/>
           <a:ext cx="587981" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3748,8 +3786,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15040</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125802</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3764,8 +3802,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2807118" y="2145882"/>
-          <a:ext cx="215066" cy="171449"/>
+          <a:off x="2836204" y="2052278"/>
+          <a:ext cx="165520" cy="172527"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3803,8 +3841,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>50138</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>20055</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131484</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716877" cy="262572"/>
     <xdr:sp macro="" textlink="">
@@ -3820,7 +3858,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2574263" y="2344155"/>
+          <a:off x="2576959" y="2226984"/>
           <a:ext cx="716877" cy="262572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3886,9 +3924,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>328907</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61641</xdr:rowOff>
+      <xdr:colOff>319382</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109266</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="356893" cy="466090"/>
     <xdr:sp macro="" textlink="">
@@ -3904,7 +3942,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="938507" y="4033566"/>
+          <a:off x="928982" y="3414441"/>
           <a:ext cx="356893" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3948,9 +3986,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="587981" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3966,7 +4004,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="1647825"/>
+          <a:off x="2171700" y="2638425"/>
           <a:ext cx="587981" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4012,13 +4050,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15040</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>125803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4033,8 +4071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="3359568" y="3631782"/>
-          <a:ext cx="215066" cy="171449"/>
+          <a:off x="3392967" y="3472043"/>
+          <a:ext cx="165520" cy="172528"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4072,8 +4110,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>88238</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>20055</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>131484</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716877" cy="262572"/>
     <xdr:sp macro="" textlink="">
@@ -4089,7 +4127,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3126713" y="3830055"/>
+          <a:off x="3132644" y="3646748"/>
           <a:ext cx="716877" cy="262572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4155,9 +4193,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>328907</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>61641</xdr:rowOff>
+      <xdr:colOff>319382</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109266</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="356893" cy="466090"/>
     <xdr:sp macro="" textlink="">
@@ -4173,7 +4211,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="938507" y="5519466"/>
+          <a:off x="928982" y="4671741"/>
           <a:ext cx="356893" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4217,9 +4255,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="587981" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -4235,7 +4273,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="3133725"/>
+          <a:off x="2171700" y="3895725"/>
           <a:ext cx="587981" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4286,8 +4324,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>15040</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>125803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4302,8 +4340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="4045368" y="5117682"/>
-          <a:ext cx="215066" cy="171449"/>
+          <a:off x="4083079" y="4891807"/>
+          <a:ext cx="165521" cy="172528"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4341,8 +4379,8 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>88238</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>20055</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>131485</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716877" cy="262572"/>
     <xdr:sp macro="" textlink="">
@@ -4358,7 +4396,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3812513" y="5315955"/>
+          <a:off x="3822757" y="5066513"/>
           <a:ext cx="716877" cy="262572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4424,9 +4462,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>328907</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>61641</xdr:rowOff>
+      <xdr:colOff>319382</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>109266</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="356893" cy="466090"/>
     <xdr:sp macro="" textlink="">
@@ -4442,7 +4480,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="938507" y="7005366"/>
+          <a:off x="928982" y="5900466"/>
           <a:ext cx="356893" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4486,9 +4524,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="587981" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -4504,7 +4542,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="4619625"/>
+          <a:off x="2171700" y="5153025"/>
           <a:ext cx="587981" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4548,15 +4586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:colOff>114302</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>15040</xdr:rowOff>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>125803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4571,8 +4609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="4845468" y="6603582"/>
-          <a:ext cx="215066" cy="171449"/>
+          <a:off x="4887494" y="6311571"/>
+          <a:ext cx="165521" cy="172527"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4610,8 +4648,8 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>31088</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>20055</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>131485</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716877" cy="262572"/>
     <xdr:sp macro="" textlink="">
@@ -4627,7 +4665,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4612613" y="6801855"/>
+          <a:off x="4628248" y="6486277"/>
           <a:ext cx="716877" cy="262572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4693,9 +4731,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>328907</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>61641</xdr:rowOff>
+      <xdr:colOff>319382</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>109266</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="356893" cy="466090"/>
     <xdr:sp macro="" textlink="">
@@ -4711,7 +4749,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="938507" y="8491266"/>
+          <a:off x="928982" y="7157766"/>
           <a:ext cx="356893" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4755,9 +4793,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="587981" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -4773,7 +4811,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="6105525"/>
+          <a:off x="2171700" y="6381750"/>
           <a:ext cx="587981" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4817,15 +4855,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>57152</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>15040</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>125802</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4840,8 +4878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="5874168" y="8089482"/>
-          <a:ext cx="215066" cy="171449"/>
+          <a:off x="5907388" y="7732593"/>
+          <a:ext cx="165521" cy="170011"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4879,8 +4917,8 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>107288</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>20055</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>131484</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716877" cy="262572"/>
     <xdr:sp macro="" textlink="">
@@ -4896,7 +4934,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5641313" y="8287755"/>
+          <a:off x="5653354" y="7906041"/>
           <a:ext cx="716877" cy="262572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4962,9 +5000,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>328907</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>61641</xdr:rowOff>
+      <xdr:colOff>319382</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>109266</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="356893" cy="466090"/>
     <xdr:sp macro="" textlink="">
@@ -4980,7 +5018,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="938507" y="9977166"/>
+          <a:off x="928982" y="8415066"/>
           <a:ext cx="356893" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5024,9 +5062,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="587981" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -5042,7 +5080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="7591425"/>
+          <a:off x="2171700" y="7639050"/>
           <a:ext cx="587981" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5086,15 +5124,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>19052</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>15040</xdr:rowOff>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>125802</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5109,8 +5147,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="6902868" y="9575382"/>
-          <a:ext cx="215066" cy="171449"/>
+          <a:off x="6926742" y="9151638"/>
+          <a:ext cx="165521" cy="171449"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -5148,8 +5186,8 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>69188</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>20055</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>131484</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716877" cy="262572"/>
     <xdr:sp macro="" textlink="">
@@ -5165,7 +5203,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6670013" y="9773655"/>
+          <a:off x="6671990" y="9325805"/>
           <a:ext cx="716877" cy="262572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5867,57 +5905,57 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:33" s="4" customFormat="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="2:33" s="7" customFormat="1" ht="15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -5929,7 +5967,7 @@
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -5955,7 +5993,7 @@
       </c>
     </row>
     <row r="5" spans="2:33">
-      <c r="B5" s="41"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
@@ -5965,7 +6003,7 @@
       <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
@@ -5989,7 +6027,7 @@
       </c>
     </row>
     <row r="6" spans="2:33">
-      <c r="G6" s="42"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
@@ -6011,7 +6049,7 @@
       </c>
     </row>
     <row r="8" spans="2:33" ht="17.25" customHeight="1">
-      <c r="AD8" s="36" t="s">
+      <c r="AD8" s="53" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6022,7 +6060,7 @@
       <c r="S9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="U9" s="51" t="s">
         <v>20</v>
       </c>
       <c r="W9" s="14" t="s">
@@ -6031,7 +6069,7 @@
       <c r="X9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="35" t="s">
+      <c r="Z9" s="52" t="s">
         <v>19</v>
       </c>
       <c r="AA9" s="14" t="s">
@@ -6041,7 +6079,7 @@
         <v>18</v>
       </c>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="36"/>
+      <c r="AD9" s="53"/>
       <c r="AF9" s="14" t="s">
         <v>17</v>
       </c>
@@ -6057,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="18"/>
-      <c r="U10" s="34"/>
+      <c r="U10" s="51"/>
       <c r="V10" s="18"/>
       <c r="W10" s="16" t="s">
         <v>5</v>
@@ -6065,7 +6103,7 @@
       <c r="X10" s="17">
         <v>12.5</v>
       </c>
-      <c r="Z10" s="35"/>
+      <c r="Z10" s="52"/>
       <c r="AA10" s="16" t="s">
         <v>5</v>
       </c>
@@ -6073,7 +6111,7 @@
         <v>10</v>
       </c>
       <c r="AC10" s="15"/>
-      <c r="AD10" s="36"/>
+      <c r="AD10" s="53"/>
       <c r="AF10" s="16" t="s">
         <v>5</v>
       </c>
@@ -6089,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="18"/>
-      <c r="U11" s="34"/>
+      <c r="U11" s="51"/>
       <c r="V11" s="18"/>
       <c r="W11" s="16" t="s">
         <v>10</v>
@@ -6097,14 +6135,14 @@
       <c r="X11" s="17">
         <v>0</v>
       </c>
-      <c r="Z11" s="35"/>
+      <c r="Z11" s="52"/>
       <c r="AA11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AB11" s="17">
         <v>2.5</v>
       </c>
-      <c r="AD11" s="36"/>
+      <c r="AD11" s="53"/>
       <c r="AF11" s="16" t="s">
         <v>10</v>
       </c>
@@ -6147,12 +6185,12 @@
     <row r="15" spans="2:33" ht="10.5" customHeight="1"/>
     <row r="16" spans="2:33" ht="18" customHeight="1">
       <c r="T16" s="4"/>
-      <c r="U16" s="37"/>
+      <c r="U16" s="54"/>
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="20:22" ht="17.25" customHeight="1">
       <c r="T17" s="18"/>
-      <c r="U17" s="37"/>
+      <c r="U17" s="54"/>
       <c r="V17" s="18"/>
     </row>
     <row r="18" spans="20:22">
@@ -6165,18 +6203,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AD8:AD11"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="Z9:Z11"/>
-    <mergeCell ref="AD8:AD11"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6189,7 +6227,7 @@
   <dimension ref="C1:AZ31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BL39" sqref="BL39"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6202,8 +6240,13 @@
     <col min="7" max="7" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="21" customWidth="1"/>
     <col min="9" max="11" width="9.140625" style="21"/>
-    <col min="12" max="41" width="2.42578125" style="21" customWidth="1"/>
-    <col min="42" max="69" width="2.140625" style="21" customWidth="1"/>
+    <col min="12" max="33" width="2.42578125" style="21" customWidth="1"/>
+    <col min="34" max="34" width="0.28515625" style="21" customWidth="1"/>
+    <col min="35" max="41" width="2.42578125" style="21" customWidth="1"/>
+    <col min="42" max="42" width="2.140625" style="21" customWidth="1"/>
+    <col min="43" max="43" width="0.7109375" style="21" customWidth="1"/>
+    <col min="44" max="44" width="0.28515625" style="21" customWidth="1"/>
+    <col min="45" max="69" width="2.140625" style="21" customWidth="1"/>
     <col min="70" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
@@ -6216,36 +6259,36 @@
       <c r="H1" s="20"/>
     </row>
     <row r="2" spans="3:8">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="3:8" s="26" customFormat="1">
       <c r="C5" s="23" t="s">
@@ -6285,36 +6328,36 @@
     </row>
     <row r="7" spans="3:8" ht="35.25" customHeight="1"/>
     <row r="8" spans="3:8">
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="48"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="3:8" s="26" customFormat="1">
       <c r="C11" s="23" t="s">
@@ -6354,36 +6397,36 @@
     </row>
     <row r="14" spans="3:8" ht="28.5" customHeight="1"/>
     <row r="15" spans="3:8">
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="3:52">
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="48"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="3:52" s="26" customFormat="1">
       <c r="C18" s="23" t="s">
@@ -6430,199 +6473,221 @@
       <c r="H20" s="26"/>
     </row>
     <row r="23" spans="3:52" ht="18.75" customHeight="1">
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="54"/>
-      <c r="AM23" s="54"/>
-      <c r="AN23" s="55"/>
+      <c r="AG23" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="66"/>
       <c r="AO23" s="32"/>
     </row>
     <row r="24" spans="3:52" ht="23.25" customHeight="1"/>
     <row r="25" spans="3:52" s="31" customFormat="1" ht="24.75" customHeight="1">
-      <c r="M25" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="W25" s="50" t="s">
+      <c r="M25" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="W25" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50" t="s">
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
-      <c r="AH25" s="50"/>
-      <c r="AI25" s="50" t="s">
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="AJ25" s="50"/>
-      <c r="AK25" s="50"/>
-      <c r="AL25" s="50"/>
-      <c r="AM25" s="50"/>
-      <c r="AN25" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO25" s="50"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="50"/>
-      <c r="AR25" s="50"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO25" s="70"/>
+      <c r="AP25" s="70"/>
+      <c r="AQ25" s="70"/>
+      <c r="AR25" s="70"/>
+      <c r="AS25" s="70"/>
+      <c r="AT25" s="71"/>
     </row>
     <row r="26" spans="3:52" ht="23.25" customHeight="1"/>
     <row r="27" spans="3:52" s="31" customFormat="1" ht="24.75" customHeight="1">
-      <c r="N27" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="U27" s="51" t="s">
+      <c r="N27" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="U27" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51" t="s">
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF27" s="51"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="51"/>
-      <c r="AM27" s="51"/>
-      <c r="AN27" s="51"/>
-      <c r="AO27" s="51"/>
-      <c r="AP27" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ27" s="51"/>
-      <c r="AR27" s="51"/>
-      <c r="AS27" s="51"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="51"/>
-      <c r="AV27" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW27" s="51"/>
-      <c r="AX27" s="51"/>
-      <c r="AY27" s="51"/>
-      <c r="AZ27" s="51"/>
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="62"/>
+      <c r="AY27" s="62"/>
+      <c r="AZ27" s="62"/>
     </row>
     <row r="28" spans="3:52" ht="23.25" customHeight="1"/>
     <row r="29" spans="3:52" ht="24.75" customHeight="1">
-      <c r="X29" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="43"/>
-      <c r="AI29" s="52" t="s">
+      <c r="W29" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AI29" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="52"/>
-      <c r="AL29" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="52"/>
-      <c r="AO29" s="52"/>
-      <c r="AP29" s="52"/>
-      <c r="AQ29" s="52"/>
-      <c r="AR29" s="52"/>
-      <c r="AS29" s="52" t="s">
+      <c r="AJ29" s="67"/>
+      <c r="AK29" s="67"/>
+      <c r="AL29" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM29" s="67"/>
+      <c r="AN29" s="67"/>
+      <c r="AO29" s="67"/>
+      <c r="AP29" s="67"/>
+      <c r="AQ29" s="67"/>
+      <c r="AR29" s="67"/>
+      <c r="AS29" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AT29" s="52"/>
-      <c r="AU29" s="52"/>
-      <c r="AV29" s="52"/>
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="52"/>
-      <c r="AY29" s="52"/>
-      <c r="AZ29" s="52"/>
+      <c r="AT29" s="67"/>
+      <c r="AU29" s="67"/>
+      <c r="AV29" s="67"/>
+      <c r="AW29" s="67"/>
+      <c r="AX29" s="67"/>
+      <c r="AY29" s="67"/>
+      <c r="AZ29" s="67"/>
     </row>
     <row r="30" spans="3:52" ht="23.25" customHeight="1"/>
     <row r="31" spans="3:52" ht="18.75" customHeight="1">
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="54"/>
-      <c r="AF31" s="54"/>
-      <c r="AG31" s="54"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="54"/>
-      <c r="AM31" s="54"/>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="54"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="54"/>
-      <c r="AR31" s="54"/>
-      <c r="AS31" s="54"/>
-      <c r="AT31" s="54"/>
-      <c r="AU31" s="54"/>
-      <c r="AV31" s="54"/>
-      <c r="AW31" s="54"/>
-      <c r="AX31" s="54"/>
-      <c r="AY31" s="54"/>
-      <c r="AZ31" s="55"/>
+      <c r="U31" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="65"/>
+      <c r="AL31" s="65"/>
+      <c r="AM31" s="65"/>
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="65"/>
+      <c r="AP31" s="65"/>
+      <c r="AQ31" s="65"/>
+      <c r="AR31" s="65"/>
+      <c r="AS31" s="65"/>
+      <c r="AT31" s="65"/>
+      <c r="AU31" s="65"/>
+      <c r="AV31" s="65"/>
+      <c r="AW31" s="65"/>
+      <c r="AX31" s="65"/>
+      <c r="AY31" s="65"/>
+      <c r="AZ31" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AG23:AN23"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="AN25:AT25"/>
+    <mergeCell ref="AS29:AZ29"/>
+    <mergeCell ref="AL29:AR29"/>
+    <mergeCell ref="AI29:AK29"/>
+    <mergeCell ref="W29:AG29"/>
+    <mergeCell ref="M25:U25"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="AV27:AZ27"/>
+    <mergeCell ref="AC25:AH25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="AI25:AM25"/>
+    <mergeCell ref="AE27:AH27"/>
+    <mergeCell ref="AI27:AO27"/>
+    <mergeCell ref="AP27:AU27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AD27"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C17:E17"/>
@@ -6635,25 +6700,6 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
-    <mergeCell ref="M25:U25"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="X29:AG29"/>
-    <mergeCell ref="AV27:AZ27"/>
-    <mergeCell ref="AC25:AH25"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="AI25:AM25"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AE27:AH27"/>
-    <mergeCell ref="AI27:AO27"/>
-    <mergeCell ref="AP27:AU27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AD27"/>
-    <mergeCell ref="AH23:AN23"/>
-    <mergeCell ref="X31:AZ31"/>
-    <mergeCell ref="AS29:AZ29"/>
-    <mergeCell ref="AL29:AR29"/>
-    <mergeCell ref="AI29:AK29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6666,697 +6712,704 @@
   <dimension ref="C2:AM70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX49" sqref="AX49"/>
+      <selection activeCell="AS65" sqref="AS65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="57"/>
-    <col min="3" max="3" width="0.7109375" style="57" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="56" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="57" customWidth="1"/>
-    <col min="7" max="22" width="2.5703125" style="57" customWidth="1"/>
-    <col min="23" max="35" width="2.28515625" style="57" customWidth="1"/>
-    <col min="36" max="40" width="3.140625" style="57" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="57"/>
+    <col min="1" max="1" width="9.140625" style="35"/>
+    <col min="2" max="2" width="9.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12" style="34" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="35" customWidth="1"/>
+    <col min="7" max="22" width="2.5703125" style="35" customWidth="1"/>
+    <col min="23" max="35" width="2.28515625" style="35" customWidth="1"/>
+    <col min="36" max="40" width="3.140625" style="35" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:39" ht="14.25">
-      <c r="C2" s="63"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="61"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+    <row r="2" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C2" s="41"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C3" s="63"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="61"/>
-    </row>
-    <row r="4" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C4" s="64"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C4" s="42"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="62"/>
-      <c r="G4" s="66" t="s">
+      <c r="E4" s="40"/>
+      <c r="G4" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="45"/>
+    </row>
+    <row r="5" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C5" s="41"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="3:39">
+      <c r="C6" s="41"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C7" s="41"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C8" s="41"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C9" s="41"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="39"/>
+      <c r="G9" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C10" s="41"/>
+      <c r="D10" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="G10" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="3:39" ht="7.5" customHeight="1"/>
+    <row r="12" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C12" s="41"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C13" s="41"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C14" s="42"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="40"/>
+      <c r="G14" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="45"/>
+    </row>
+    <row r="15" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C15" s="41"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" spans="3:39">
+      <c r="C16" s="41"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
+    </row>
+    <row r="17" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C17" s="41"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="39"/>
+    </row>
+    <row r="18" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C18" s="41"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="39"/>
+    </row>
+    <row r="19" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C19" s="41"/>
+      <c r="D19" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="G19" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C20" s="41"/>
+      <c r="D20" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="G20" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:39" ht="7.5" customHeight="1"/>
+    <row r="22" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C22" s="41"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="39"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C23" s="41"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="39"/>
+    </row>
+    <row r="24" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C24" s="42"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="40"/>
+      <c r="G24" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="68"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="68"/>
+      <c r="AK24" s="68"/>
+      <c r="AL24" s="68"/>
+      <c r="AM24" s="45"/>
+    </row>
+    <row r="25" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C25" s="41"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="3:39">
+      <c r="C26" s="41"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C27" s="41"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="39"/>
+    </row>
+    <row r="28" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C28" s="41"/>
+      <c r="D28" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="39"/>
+    </row>
+    <row r="29" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C29" s="41"/>
+      <c r="D29" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="G29" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C30" s="41"/>
+      <c r="D30" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="G30" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="3:39" ht="7.5" customHeight="1"/>
+    <row r="32" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C32" s="41"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="39"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+    </row>
+    <row r="33" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C33" s="41"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="39"/>
+    </row>
+    <row r="34" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C34" s="42"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="40"/>
+      <c r="G34" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="68"/>
+      <c r="AK34" s="68"/>
+      <c r="AL34" s="68"/>
+      <c r="AM34" s="45"/>
+    </row>
+    <row r="35" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C35" s="41"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="39"/>
+    </row>
+    <row r="36" spans="3:39">
+      <c r="C36" s="41"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="39"/>
+    </row>
+    <row r="37" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C37" s="41"/>
+      <c r="D37" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="39"/>
+    </row>
+    <row r="38" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C38" s="41"/>
+      <c r="D38" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="39"/>
+    </row>
+    <row r="39" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C39" s="41"/>
+      <c r="D39" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="G39" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C40" s="41"/>
+      <c r="D40" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="39"/>
+      <c r="G40" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="3:39" ht="7.5" customHeight="1"/>
+    <row r="42" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C42" s="41"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="39"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+    </row>
+    <row r="43" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C43" s="41"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="39"/>
+    </row>
+    <row r="44" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C44" s="42"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="40"/>
+      <c r="G44" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="68"/>
+      <c r="AE44" s="68"/>
+      <c r="AF44" s="68"/>
+      <c r="AG44" s="68"/>
+      <c r="AH44" s="68"/>
+      <c r="AI44" s="68"/>
+      <c r="AJ44" s="68"/>
+      <c r="AK44" s="68"/>
+      <c r="AL44" s="68"/>
+      <c r="AM44" s="45"/>
+    </row>
+    <row r="45" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C45" s="41"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="39"/>
+    </row>
+    <row r="46" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C46" s="41"/>
+      <c r="D46" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="39"/>
+    </row>
+    <row r="47" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C47" s="41"/>
+      <c r="D47" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="39"/>
+    </row>
+    <row r="48" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C48" s="41"/>
+      <c r="D48" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="39"/>
+    </row>
+    <row r="49" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C49" s="41"/>
+      <c r="D49" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="39"/>
+      <c r="G49" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C50" s="41"/>
+      <c r="D50" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="39"/>
+      <c r="G50" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="3:39" ht="7.5" customHeight="1"/>
+    <row r="52" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C52" s="41"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="39"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+    </row>
+    <row r="53" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C53" s="41"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="39"/>
+    </row>
+    <row r="54" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C54" s="42"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="40"/>
+      <c r="G54" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
+      <c r="X54" s="68"/>
+      <c r="Y54" s="68"/>
+      <c r="Z54" s="68"/>
+      <c r="AA54" s="68"/>
+      <c r="AB54" s="68"/>
+      <c r="AC54" s="68"/>
+      <c r="AD54" s="68"/>
+      <c r="AE54" s="68"/>
+      <c r="AF54" s="68"/>
+      <c r="AG54" s="68"/>
+      <c r="AH54" s="68"/>
+      <c r="AI54" s="68"/>
+      <c r="AJ54" s="68"/>
+      <c r="AK54" s="68"/>
+      <c r="AL54" s="68"/>
+      <c r="AM54" s="45"/>
+    </row>
+    <row r="55" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C55" s="41"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="39"/>
+    </row>
+    <row r="56" spans="3:39">
+      <c r="C56" s="41"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="39"/>
+    </row>
+    <row r="57" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C57" s="41"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="39"/>
+    </row>
+    <row r="58" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C58" s="41"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="39"/>
+    </row>
+    <row r="59" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C59" s="41"/>
+      <c r="D59" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="39"/>
+      <c r="G59" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="68"/>
-    </row>
-    <row r="5" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C5" s="63"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="61"/>
-    </row>
-    <row r="6" spans="3:39">
-      <c r="C6" s="63"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="61"/>
-    </row>
-    <row r="7" spans="3:39">
-      <c r="C7" s="63"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="61"/>
-    </row>
-    <row r="8" spans="3:39">
-      <c r="C8" s="63"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="61"/>
-    </row>
-    <row r="9" spans="3:39">
-      <c r="C9" s="63"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="61"/>
-      <c r="G9" s="57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="3:39">
-      <c r="C10" s="63"/>
-      <c r="D10" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="G10" s="57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="3:39" ht="14.25">
-      <c r="C12" s="63"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="61"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-    </row>
-    <row r="13" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C13" s="63"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="61"/>
-    </row>
-    <row r="14" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C14" s="64"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="62"/>
-      <c r="G14" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="68"/>
-    </row>
-    <row r="15" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C15" s="63"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="61"/>
-    </row>
-    <row r="16" spans="3:39">
-      <c r="C16" s="63"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="61"/>
-    </row>
-    <row r="17" spans="3:39">
-      <c r="C17" s="63"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="61"/>
-    </row>
-    <row r="18" spans="3:39">
-      <c r="C18" s="63"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="61"/>
-    </row>
-    <row r="19" spans="3:39">
-      <c r="C19" s="63"/>
-      <c r="D19" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="61"/>
-      <c r="G19" s="57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="3:39">
-      <c r="C20" s="63"/>
-      <c r="D20" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="61"/>
-      <c r="G20" s="57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="3:39" ht="14.25">
-      <c r="C22" s="63"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="61"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-    </row>
-    <row r="23" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C23" s="63"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="61"/>
-    </row>
-    <row r="24" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C24" s="64"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="62"/>
-      <c r="G24" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="68"/>
-    </row>
-    <row r="25" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C25" s="63"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="61"/>
-    </row>
-    <row r="26" spans="3:39">
-      <c r="C26" s="63"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="61"/>
-    </row>
-    <row r="27" spans="3:39">
-      <c r="C27" s="63"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="61"/>
-    </row>
-    <row r="28" spans="3:39">
-      <c r="C28" s="63"/>
-      <c r="D28" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="61"/>
-    </row>
-    <row r="29" spans="3:39">
-      <c r="C29" s="63"/>
-      <c r="D29" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="61"/>
-      <c r="G29" s="57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="3:39">
-      <c r="C30" s="63"/>
-      <c r="D30" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="61"/>
-      <c r="G30" s="57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="3:39" ht="14.25">
-      <c r="C32" s="63"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="61"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-    </row>
-    <row r="33" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C33" s="63"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="61"/>
-    </row>
-    <row r="34" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C34" s="64"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="62"/>
-      <c r="G34" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="68"/>
-    </row>
-    <row r="35" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C35" s="63"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="61"/>
-    </row>
-    <row r="36" spans="3:39">
-      <c r="C36" s="63"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="61"/>
-    </row>
-    <row r="37" spans="3:39">
-      <c r="C37" s="63"/>
-      <c r="D37" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="61"/>
-    </row>
-    <row r="38" spans="3:39">
-      <c r="C38" s="63"/>
-      <c r="D38" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="61"/>
-    </row>
-    <row r="39" spans="3:39">
-      <c r="C39" s="63"/>
-      <c r="D39" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="61"/>
-      <c r="G39" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="3:39">
-      <c r="C40" s="63"/>
-      <c r="D40" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="61"/>
-      <c r="G40" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="3:39" ht="14.25">
-      <c r="C42" s="63"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="61"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-    </row>
-    <row r="43" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C43" s="63"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="61"/>
-    </row>
-    <row r="44" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C44" s="64"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="62"/>
-      <c r="G44" s="66" t="s">
+    </row>
+    <row r="60" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C60" s="41"/>
+      <c r="D60" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="39"/>
+      <c r="G60" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="3:39" ht="7.5" customHeight="1"/>
+    <row r="62" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C62" s="41"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="39"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+    </row>
+    <row r="63" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
+      <c r="C63" s="41"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="39"/>
+    </row>
+    <row r="64" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C64" s="42"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="40"/>
+      <c r="G64" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="66"/>
-      <c r="AL44" s="66"/>
-      <c r="AM44" s="68"/>
-    </row>
-    <row r="45" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C45" s="63"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="61"/>
-    </row>
-    <row r="46" spans="3:39">
-      <c r="C46" s="63"/>
-      <c r="D46" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="61"/>
-    </row>
-    <row r="47" spans="3:39">
-      <c r="C47" s="63"/>
-      <c r="D47" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="61"/>
-    </row>
-    <row r="48" spans="3:39">
-      <c r="C48" s="63"/>
-      <c r="D48" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="61"/>
-    </row>
-    <row r="49" spans="3:39">
-      <c r="C49" s="63"/>
-      <c r="D49" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="61"/>
-      <c r="G49" s="57" t="s">
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="68"/>
+      <c r="T64" s="68"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="68"/>
+      <c r="W64" s="68"/>
+      <c r="X64" s="68"/>
+      <c r="Y64" s="68"/>
+      <c r="Z64" s="68"/>
+      <c r="AA64" s="68"/>
+      <c r="AB64" s="68"/>
+      <c r="AC64" s="68"/>
+      <c r="AD64" s="68"/>
+      <c r="AE64" s="68"/>
+      <c r="AF64" s="68"/>
+      <c r="AG64" s="68"/>
+      <c r="AH64" s="68"/>
+      <c r="AI64" s="68"/>
+      <c r="AJ64" s="68"/>
+      <c r="AK64" s="68"/>
+      <c r="AL64" s="68"/>
+      <c r="AM64" s="45"/>
+    </row>
+    <row r="65" spans="3:7" ht="5.25" customHeight="1" thickTop="1">
+      <c r="C65" s="41"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="39"/>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" s="41"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="39"/>
+    </row>
+    <row r="67" spans="3:7" ht="10.5" customHeight="1">
+      <c r="C67" s="41"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="39"/>
+    </row>
+    <row r="68" spans="3:7" ht="10.5" customHeight="1">
+      <c r="C68" s="41"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="39"/>
+    </row>
+    <row r="69" spans="3:7" ht="10.5" customHeight="1">
+      <c r="C69" s="41"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="39"/>
+      <c r="G69" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="3:39">
-      <c r="C50" s="63"/>
-      <c r="D50" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="61"/>
-      <c r="G50" s="57" t="s">
+    <row r="70" spans="3:7" ht="10.5" customHeight="1">
+      <c r="C70" s="41"/>
+      <c r="D70" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="39"/>
+      <c r="G70" s="35" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="3:39" ht="14.25">
-      <c r="C52" s="63"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="61"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-    </row>
-    <row r="53" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C53" s="63"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="61"/>
-    </row>
-    <row r="54" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C54" s="64"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="62"/>
-      <c r="G54" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="66"/>
-      <c r="Q54" s="66"/>
-      <c r="R54" s="66"/>
-      <c r="S54" s="66"/>
-      <c r="T54" s="66"/>
-      <c r="U54" s="66"/>
-      <c r="V54" s="66"/>
-      <c r="W54" s="66"/>
-      <c r="X54" s="66"/>
-      <c r="Y54" s="66"/>
-      <c r="Z54" s="66"/>
-      <c r="AA54" s="66"/>
-      <c r="AB54" s="66"/>
-      <c r="AC54" s="66"/>
-      <c r="AD54" s="66"/>
-      <c r="AE54" s="66"/>
-      <c r="AF54" s="66"/>
-      <c r="AG54" s="66"/>
-      <c r="AH54" s="66"/>
-      <c r="AI54" s="66"/>
-      <c r="AJ54" s="66"/>
-      <c r="AK54" s="66"/>
-      <c r="AL54" s="66"/>
-      <c r="AM54" s="68"/>
-    </row>
-    <row r="55" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C55" s="63"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="61"/>
-    </row>
-    <row r="56" spans="3:39">
-      <c r="C56" s="63"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="61"/>
-    </row>
-    <row r="57" spans="3:39">
-      <c r="C57" s="63"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="61"/>
-    </row>
-    <row r="58" spans="3:39">
-      <c r="C58" s="63"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="61"/>
-    </row>
-    <row r="59" spans="3:39">
-      <c r="C59" s="63"/>
-      <c r="D59" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="61"/>
-      <c r="G59" s="57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="3:39">
-      <c r="C60" s="63"/>
-      <c r="D60" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="61"/>
-      <c r="G60" s="57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="3:39" ht="14.25">
-      <c r="C62" s="63"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="61"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-    </row>
-    <row r="63" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C63" s="63"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="61"/>
-    </row>
-    <row r="64" spans="3:39" s="58" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C64" s="64"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="62"/>
-      <c r="G64" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="66"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
-      <c r="W64" s="66"/>
-      <c r="X64" s="66"/>
-      <c r="Y64" s="66"/>
-      <c r="Z64" s="66"/>
-      <c r="AA64" s="66"/>
-      <c r="AB64" s="66"/>
-      <c r="AC64" s="66"/>
-      <c r="AD64" s="66"/>
-      <c r="AE64" s="66"/>
-      <c r="AF64" s="66"/>
-      <c r="AG64" s="66"/>
-      <c r="AH64" s="66"/>
-      <c r="AI64" s="66"/>
-      <c r="AJ64" s="66"/>
-      <c r="AK64" s="66"/>
-      <c r="AL64" s="66"/>
-      <c r="AM64" s="68"/>
-    </row>
-    <row r="65" spans="3:7" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C65" s="63"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="61"/>
-    </row>
-    <row r="66" spans="3:7">
-      <c r="C66" s="63"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="61"/>
-    </row>
-    <row r="67" spans="3:7">
-      <c r="C67" s="63"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="61"/>
-    </row>
-    <row r="68" spans="3:7">
-      <c r="C68" s="63"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="61"/>
-    </row>
-    <row r="69" spans="3:7">
-      <c r="C69" s="63"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="61"/>
-      <c r="G69" s="57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7">
-      <c r="C70" s="63"/>
-      <c r="D70" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" s="61"/>
-      <c r="G70" s="57" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G4:AL4"/>
+    <mergeCell ref="G14:AL14"/>
     <mergeCell ref="G24:AL24"/>
     <mergeCell ref="G34:AL34"/>
     <mergeCell ref="G44:AL44"/>
     <mergeCell ref="G54:AL54"/>
     <mergeCell ref="G64:AL64"/>
-    <mergeCell ref="G4:AL4"/>
-    <mergeCell ref="G14:AL14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
+++ b/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
@@ -6712,7 +6712,7 @@
   <dimension ref="C2:AM70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS65" sqref="AS65"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
+++ b/img/10/199/1001-bitcoin-internals/bitcoin-internals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概念模型" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>张三李四各出一半共同向王五支付5比特币</t>
   </si>
   <si>
-    <t>tx-input</t>
-  </si>
-  <si>
     <t>tx0</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
   </si>
   <si>
     <t>Bob pays 200 satoshis to Frank</t>
-  </si>
-  <si>
-    <t>tx-output (UTXO)</t>
   </si>
   <si>
     <t>version</t>
@@ -536,12 +530,18 @@
   <si>
     <t>PubKHash calculated from the PubK, if they match, both are removed and execution continues</t>
   </si>
+  <si>
+    <t>tx-out (UTXO)</t>
+  </si>
+  <si>
+    <t>tx-in</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,8 +693,16 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,18 +718,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +748,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,9 +997,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1066,29 +1065,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1101,6 +1085,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1117,41 +1143,17 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1918,8 +1920,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>111578</xdr:rowOff>
     </xdr:from>
@@ -1937,7 +1939,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="2330903"/>
+          <a:off x="3524250" y="2007053"/>
           <a:ext cx="4362450" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2020,8 +2022,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>112940</xdr:rowOff>
     </xdr:from>
@@ -2039,7 +2041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="3684815"/>
+          <a:off x="3543300" y="3360965"/>
           <a:ext cx="4391025" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2122,8 +2124,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
@@ -2141,7 +2143,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="3686175"/>
+          <a:off x="1685925" y="3362325"/>
           <a:ext cx="1942327" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2245,7 +2247,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>96611</xdr:rowOff>
     </xdr:from>
@@ -2263,7 +2265,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3905250" y="5116286"/>
+          <a:off x="3486150" y="4792436"/>
           <a:ext cx="4429482" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2539,8 +2541,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
@@ -2558,7 +2560,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1857375" y="5124450"/>
+          <a:off x="1666875" y="4800600"/>
           <a:ext cx="1840376" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2785,15 +2787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2808,8 +2810,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="3752850"/>
-          <a:ext cx="0" cy="209550"/>
+          <a:off x="2952750" y="3248025"/>
+          <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2843,15 +2845,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2866,8 +2868,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="5334000"/>
-          <a:ext cx="0" cy="209550"/>
+          <a:off x="2943225" y="4695825"/>
+          <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2901,15 +2903,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2924,8 +2926,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="3752850"/>
-          <a:ext cx="0" cy="209550"/>
+          <a:off x="4438650" y="3248025"/>
+          <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2959,15 +2961,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2982,8 +2984,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4657725" y="5334000"/>
-          <a:ext cx="0" cy="209550"/>
+          <a:off x="4448175" y="4695825"/>
+          <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3017,13 +3019,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -3040,8 +3042,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="2286000"/>
-          <a:ext cx="0" cy="209550"/>
+          <a:off x="4438650" y="1885950"/>
+          <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5849,7 +5851,7 @@
   <dimension ref="B1:AG19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5905,57 +5907,57 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:33" s="4" customFormat="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="2:33" s="7" customFormat="1" ht="15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -5967,7 +5969,7 @@
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="52" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -5993,7 +5995,7 @@
       </c>
     </row>
     <row r="5" spans="2:33">
-      <c r="B5" s="47"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
@@ -6003,7 +6005,7 @@
       <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
@@ -6027,7 +6029,7 @@
       </c>
     </row>
     <row r="6" spans="2:33">
-      <c r="G6" s="50"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
@@ -6049,172 +6051,172 @@
       </c>
     </row>
     <row r="8" spans="2:33" ht="17.25" customHeight="1">
-      <c r="AD8" s="53" t="s">
+      <c r="AD8" s="47" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:33" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="51" t="s">
+      <c r="U9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="W9" s="14" t="s">
+      <c r="W9" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="X9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="52" t="s">
+      <c r="Z9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="AA9" s="14" t="s">
+      <c r="AA9" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="AB9" s="14" t="s">
+      <c r="AB9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="53"/>
-      <c r="AF9" s="14" t="s">
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="47"/>
+      <c r="AF9" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="AG9" s="14" t="s">
+      <c r="AG9" s="70" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:33" ht="17.25" customHeight="1">
-      <c r="R10" s="16" t="s">
+      <c r="R10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="16">
         <v>0</v>
       </c>
-      <c r="T10" s="18"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="16" t="s">
+      <c r="T10" s="17"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="17">
+      <c r="X10" s="16">
         <v>12.5</v>
       </c>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="16" t="s">
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AB10" s="17">
+      <c r="AB10" s="16">
         <v>10</v>
       </c>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="53"/>
-      <c r="AF10" s="16" t="s">
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="47"/>
+      <c r="AF10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AG10" s="17">
+      <c r="AG10" s="16">
         <v>7.5</v>
       </c>
     </row>
     <row r="11" spans="2:33">
-      <c r="R11" s="16" t="s">
+      <c r="R11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="16">
         <v>0</v>
       </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="16" t="s">
+      <c r="T11" s="17"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="X11" s="17">
+      <c r="X11" s="16">
         <v>0</v>
       </c>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="16" t="s">
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AB11" s="17">
+      <c r="AB11" s="16">
         <v>2.5</v>
       </c>
-      <c r="AD11" s="53"/>
-      <c r="AF11" s="16" t="s">
+      <c r="AD11" s="47"/>
+      <c r="AF11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AG11" s="17">
+      <c r="AG11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:33">
-      <c r="R12" s="16" t="s">
+      <c r="R12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="16">
         <v>0</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="16" t="s">
+      <c r="T12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="16">
         <v>0</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="AA12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AB12" s="17">
+      <c r="AB12" s="16">
         <v>0</v>
       </c>
-      <c r="AF12" s="16" t="s">
+      <c r="AF12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AG12" s="17">
+      <c r="AG12" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:33" ht="9.75" customHeight="1"/>
     <row r="14" spans="2:33">
-      <c r="Y14" s="19"/>
+      <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="2:33" ht="10.5" customHeight="1"/>
     <row r="16" spans="2:33" ht="18" customHeight="1">
       <c r="T16" s="4"/>
-      <c r="U16" s="54"/>
+      <c r="U16" s="48"/>
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="20:22" ht="17.25" customHeight="1">
-      <c r="T17" s="18"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="18"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="17"/>
     </row>
     <row r="18" spans="20:22">
-      <c r="T18" s="18"/>
-      <c r="V18" s="18"/>
+      <c r="T18" s="17"/>
+      <c r="V18" s="17"/>
     </row>
     <row r="19" spans="20:22">
-      <c r="T19" s="18"/>
-      <c r="V19" s="18"/>
+      <c r="T19" s="17"/>
+      <c r="V19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="U9:U11"/>
     <mergeCell ref="Z9:Z11"/>
     <mergeCell ref="AD8:AD11"/>
     <mergeCell ref="U16:U17"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6226,449 +6228,464 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AZ31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="13.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="21" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="21"/>
-    <col min="12" max="33" width="2.42578125" style="21" customWidth="1"/>
-    <col min="34" max="34" width="0.28515625" style="21" customWidth="1"/>
-    <col min="35" max="41" width="2.42578125" style="21" customWidth="1"/>
-    <col min="42" max="42" width="2.140625" style="21" customWidth="1"/>
-    <col min="43" max="43" width="0.7109375" style="21" customWidth="1"/>
-    <col min="44" max="44" width="0.28515625" style="21" customWidth="1"/>
-    <col min="45" max="69" width="2.140625" style="21" customWidth="1"/>
-    <col min="70" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="2" width="13.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="20" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="20"/>
+    <col min="12" max="33" width="2.42578125" style="20" customWidth="1"/>
+    <col min="34" max="34" width="0.28515625" style="20" customWidth="1"/>
+    <col min="35" max="41" width="2.42578125" style="20" customWidth="1"/>
+    <col min="42" max="42" width="2.140625" style="20" customWidth="1"/>
+    <col min="43" max="43" width="0.7109375" style="20" customWidth="1"/>
+    <col min="44" max="44" width="0.28515625" style="20" customWidth="1"/>
+    <col min="45" max="69" width="2.140625" style="20" customWidth="1"/>
+    <col min="70" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:8" ht="78" customHeight="1">
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="3:8">
-      <c r="C2" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="C2" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="3:8" s="25" customFormat="1">
+      <c r="C5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="59"/>
-    </row>
-    <row r="5" spans="3:8" s="26" customFormat="1">
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="25" t="s">
+    </row>
+    <row r="6" spans="3:8" s="29" customFormat="1">
+      <c r="C6" s="26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" s="30" customFormat="1">
-      <c r="C6" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29">
+      <c r="D6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28">
         <v>200</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>29</v>
+      <c r="H6" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="35.25" customHeight="1"/>
     <row r="8" spans="3:8">
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="59"/>
-    </row>
-    <row r="11" spans="3:8" s="26" customFormat="1">
-      <c r="C11" s="23" t="s">
+      <c r="C10" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="67"/>
+    </row>
+    <row r="11" spans="3:8" s="25" customFormat="1">
+      <c r="C11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="25" t="s">
+    </row>
+    <row r="12" spans="3:8" s="29" customFormat="1">
+      <c r="C12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" s="30" customFormat="1">
-      <c r="C12" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="27">
-        <v>0</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29">
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
         <v>200</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>29</v>
+      <c r="H12" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="28.5" customHeight="1"/>
     <row r="15" spans="3:8">
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+    </row>
+    <row r="17" spans="3:52">
+      <c r="C17" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="67"/>
+    </row>
+    <row r="18" spans="3:52" s="25" customFormat="1">
+      <c r="C18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:52" s="29" customFormat="1">
+      <c r="C19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28">
+        <v>200</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:52">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="23" spans="3:52" ht="18.75" customHeight="1">
+      <c r="AG23" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="54"/>
+      <c r="AM23" s="54"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="31"/>
+    </row>
+    <row r="24" spans="3:52" ht="23.25" customHeight="1"/>
+    <row r="25" spans="3:52" s="30" customFormat="1" ht="24.75" customHeight="1">
+      <c r="M25" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="W25" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="58"/>
+    </row>
+    <row r="26" spans="3:52" ht="23.25" customHeight="1"/>
+    <row r="27" spans="3:52" s="30" customFormat="1" ht="24.75" customHeight="1">
+      <c r="N27" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="U27" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-    </row>
-    <row r="17" spans="3:52">
-      <c r="C17" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="59" t="s">
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="61"/>
+      <c r="AO27" s="61"/>
+      <c r="AP27" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ27" s="61"/>
+      <c r="AR27" s="61"/>
+      <c r="AS27" s="61"/>
+      <c r="AT27" s="61"/>
+      <c r="AU27" s="61"/>
+      <c r="AV27" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="59"/>
-    </row>
-    <row r="18" spans="3:52" s="26" customFormat="1">
-      <c r="C18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="3:52" s="30" customFormat="1">
-      <c r="C19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="27">
-        <v>0</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29">
-        <v>200</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="3:52">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="23" spans="3:52" ht="18.75" customHeight="1">
-      <c r="AG23" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="32"/>
-    </row>
-    <row r="24" spans="3:52" ht="23.25" customHeight="1"/>
-    <row r="25" spans="3:52" s="31" customFormat="1" ht="24.75" customHeight="1">
-      <c r="M25" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="W25" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO25" s="70"/>
-      <c r="AP25" s="70"/>
-      <c r="AQ25" s="70"/>
-      <c r="AR25" s="70"/>
-      <c r="AS25" s="70"/>
-      <c r="AT25" s="71"/>
-    </row>
-    <row r="26" spans="3:52" ht="23.25" customHeight="1"/>
-    <row r="27" spans="3:52" s="31" customFormat="1" ht="24.75" customHeight="1">
-      <c r="N27" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="U27" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="62"/>
-      <c r="AY27" s="62"/>
-      <c r="AZ27" s="62"/>
+      <c r="AW27" s="61"/>
+      <c r="AX27" s="61"/>
+      <c r="AY27" s="61"/>
+      <c r="AZ27" s="61"/>
     </row>
     <row r="28" spans="3:52" ht="23.25" customHeight="1"/>
     <row r="29" spans="3:52" ht="24.75" customHeight="1">
-      <c r="W29" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="61"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="61"/>
-      <c r="AB29" s="61"/>
-      <c r="AC29" s="61"/>
-      <c r="AD29" s="61"/>
-      <c r="AE29" s="61"/>
-      <c r="AF29" s="61"/>
-      <c r="AG29" s="61"/>
-      <c r="AI29" s="67" t="s">
+      <c r="W29" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AI29" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ29" s="59"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="59"/>
+      <c r="AO29" s="59"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="59"/>
+      <c r="AS29" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AJ29" s="67"/>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM29" s="67"/>
-      <c r="AN29" s="67"/>
-      <c r="AO29" s="67"/>
-      <c r="AP29" s="67"/>
-      <c r="AQ29" s="67"/>
-      <c r="AR29" s="67"/>
-      <c r="AS29" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT29" s="67"/>
-      <c r="AU29" s="67"/>
-      <c r="AV29" s="67"/>
-      <c r="AW29" s="67"/>
-      <c r="AX29" s="67"/>
-      <c r="AY29" s="67"/>
-      <c r="AZ29" s="67"/>
+      <c r="AT29" s="59"/>
+      <c r="AU29" s="59"/>
+      <c r="AV29" s="59"/>
+      <c r="AW29" s="59"/>
+      <c r="AX29" s="59"/>
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="59"/>
     </row>
     <row r="30" spans="3:52" ht="23.25" customHeight="1"/>
     <row r="31" spans="3:52" ht="18.75" customHeight="1">
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-      <c r="AG31" s="65"/>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="65"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="65"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="65"/>
-      <c r="AS31" s="65"/>
-      <c r="AT31" s="65"/>
-      <c r="AU31" s="65"/>
-      <c r="AV31" s="65"/>
-      <c r="AW31" s="65"/>
-      <c r="AX31" s="65"/>
-      <c r="AY31" s="65"/>
-      <c r="AZ31" s="66"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="54"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="54"/>
+      <c r="AK31" s="54"/>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="54"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="54"/>
+      <c r="AT31" s="54"/>
+      <c r="AU31" s="54"/>
+      <c r="AV31" s="54"/>
+      <c r="AW31" s="54"/>
+      <c r="AX31" s="54"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AP27:AU27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AD27"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="AG23:AN23"/>
     <mergeCell ref="U31:AZ31"/>
     <mergeCell ref="AN25:AT25"/>
@@ -6685,21 +6702,6 @@
     <mergeCell ref="AI25:AM25"/>
     <mergeCell ref="AE27:AH27"/>
     <mergeCell ref="AI27:AO27"/>
-    <mergeCell ref="AP27:AU27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AD27"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6711,44 +6713,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AM70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR52" sqref="AR52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="35"/>
-    <col min="2" max="2" width="9.140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="0.7109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12" style="34" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="35" customWidth="1"/>
-    <col min="7" max="22" width="2.5703125" style="35" customWidth="1"/>
-    <col min="23" max="35" width="2.28515625" style="35" customWidth="1"/>
-    <col min="36" max="40" width="3.140625" style="35" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="9.140625" style="34"/>
+    <col min="2" max="2" width="9.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12" style="33" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="34" customWidth="1"/>
+    <col min="7" max="22" width="2.5703125" style="34" customWidth="1"/>
+    <col min="23" max="35" width="2.28515625" style="34" customWidth="1"/>
+    <col min="36" max="40" width="3.140625" style="34" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C2" s="41"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="39"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C3" s="41"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C4" s="42"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="3:39" s="35" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C4" s="41"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="39"/>
       <c r="G4" s="68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
@@ -6781,67 +6783,67 @@
       <c r="AJ4" s="68"/>
       <c r="AK4" s="68"/>
       <c r="AL4" s="68"/>
-      <c r="AM4" s="45"/>
+      <c r="AM4" s="44"/>
     </row>
     <row r="5" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C5" s="41"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="3:39">
-      <c r="C6" s="41"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C7" s="41"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C8" s="41"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C9" s="41"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39"/>
-      <c r="G9" s="35" t="s">
-        <v>48</v>
+      <c r="C9" s="40"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="38"/>
+      <c r="G9" s="34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C10" s="41"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="G10" s="34" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="G10" s="35" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="3:39" ht="7.5" customHeight="1"/>
     <row r="12" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C12" s="41"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="39"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="38"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
     </row>
     <row r="13" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C13" s="41"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C14" s="42"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="3:39" s="35" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C14" s="41"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="39"/>
       <c r="G14" s="68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="68"/>
@@ -6874,69 +6876,69 @@
       <c r="AJ14" s="68"/>
       <c r="AK14" s="68"/>
       <c r="AL14" s="68"/>
-      <c r="AM14" s="45"/>
+      <c r="AM14" s="44"/>
     </row>
     <row r="15" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C15" s="41"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="3:39">
-      <c r="C16" s="41"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C17" s="41"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C18" s="41"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C19" s="41"/>
-      <c r="D19" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="G19" s="35" t="s">
-        <v>46</v>
+      <c r="C19" s="40"/>
+      <c r="D19" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="G19" s="34" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C20" s="41"/>
-      <c r="D20" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="G20" s="35" t="s">
-        <v>49</v>
+      <c r="C20" s="40"/>
+      <c r="D20" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="G20" s="34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="3:39" ht="7.5" customHeight="1"/>
     <row r="22" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C22" s="41"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="39"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="38"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
     </row>
     <row r="23" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C23" s="41"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="39"/>
-    </row>
-    <row r="24" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C24" s="42"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="3:39" s="35" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C24" s="41"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="39"/>
       <c r="G24" s="68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H24" s="68"/>
       <c r="I24" s="68"/>
@@ -6969,71 +6971,71 @@
       <c r="AJ24" s="68"/>
       <c r="AK24" s="68"/>
       <c r="AL24" s="68"/>
-      <c r="AM24" s="45"/>
+      <c r="AM24" s="44"/>
     </row>
     <row r="25" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C25" s="41"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:39">
-      <c r="C26" s="41"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C27" s="41"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C28" s="41"/>
-      <c r="D28" s="44" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="38"/>
+    </row>
+    <row r="29" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C29" s="40"/>
+      <c r="D29" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="G29" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="3:39" ht="10.5" customHeight="1">
+      <c r="C30" s="40"/>
+      <c r="D30" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="G30" s="34" t="s">
         <v>50</v>
-      </c>
-      <c r="E28" s="39"/>
-    </row>
-    <row r="29" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C29" s="41"/>
-      <c r="D29" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="39"/>
-      <c r="G29" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C30" s="41"/>
-      <c r="D30" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="G30" s="35" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="31" spans="3:39" ht="7.5" customHeight="1"/>
     <row r="32" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C32" s="41"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="39"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="38"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
     </row>
     <row r="33" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C33" s="41"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="39"/>
-    </row>
-    <row r="34" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C34" s="42"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="38"/>
+    </row>
+    <row r="34" spans="3:39" s="35" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C34" s="41"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H34" s="68"/>
       <c r="I34" s="68"/>
@@ -7066,73 +7068,73 @@
       <c r="AJ34" s="68"/>
       <c r="AK34" s="68"/>
       <c r="AL34" s="68"/>
-      <c r="AM34" s="45"/>
+      <c r="AM34" s="44"/>
     </row>
     <row r="35" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C35" s="41"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="38"/>
     </row>
     <row r="36" spans="3:39">
-      <c r="C36" s="41"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C37" s="41"/>
-      <c r="D37" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C38" s="41"/>
-      <c r="D38" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C39" s="41"/>
-      <c r="D39" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="39"/>
-      <c r="G39" s="35" t="s">
-        <v>53</v>
+      <c r="C39" s="40"/>
+      <c r="D39" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="38"/>
+      <c r="G39" s="34" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C40" s="41"/>
-      <c r="D40" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="39"/>
-      <c r="G40" s="35" t="s">
-        <v>54</v>
+      <c r="C40" s="40"/>
+      <c r="D40" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="G40" s="34" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="3:39" ht="7.5" customHeight="1"/>
     <row r="42" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C42" s="41"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="39"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="38"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
     </row>
     <row r="43" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C43" s="41"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="39"/>
-    </row>
-    <row r="44" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C44" s="42"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="38"/>
+    </row>
+    <row r="44" spans="3:39" s="35" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C44" s="41"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="39"/>
       <c r="G44" s="68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H44" s="68"/>
       <c r="I44" s="68"/>
@@ -7165,75 +7167,75 @@
       <c r="AJ44" s="68"/>
       <c r="AK44" s="68"/>
       <c r="AL44" s="68"/>
-      <c r="AM44" s="45"/>
+      <c r="AM44" s="44"/>
     </row>
     <row r="45" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C45" s="41"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C46" s="41"/>
-      <c r="D46" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="39"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C47" s="41"/>
-      <c r="D47" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="38"/>
     </row>
     <row r="48" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C48" s="41"/>
-      <c r="D48" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C49" s="41"/>
-      <c r="D49" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="39"/>
-      <c r="G49" s="35" t="s">
-        <v>59</v>
+      <c r="C49" s="40"/>
+      <c r="D49" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="G49" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C50" s="41"/>
-      <c r="D50" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="39"/>
-      <c r="G50" s="35" t="s">
-        <v>60</v>
+      <c r="C50" s="40"/>
+      <c r="D50" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="G50" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="3:39" ht="7.5" customHeight="1"/>
     <row r="52" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C52" s="41"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="39"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="38"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
     </row>
     <row r="53" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C53" s="41"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="39"/>
-    </row>
-    <row r="54" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C54" s="42"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="38"/>
+    </row>
+    <row r="54" spans="3:39" s="35" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C54" s="41"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="39"/>
       <c r="G54" s="68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="68"/>
@@ -7266,69 +7268,69 @@
       <c r="AJ54" s="68"/>
       <c r="AK54" s="68"/>
       <c r="AL54" s="68"/>
-      <c r="AM54" s="45"/>
+      <c r="AM54" s="44"/>
     </row>
     <row r="55" spans="3:39" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C55" s="41"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="39"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="3:39">
-      <c r="C56" s="41"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="38"/>
     </row>
     <row r="57" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C57" s="41"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="38"/>
     </row>
     <row r="58" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C58" s="41"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C59" s="41"/>
-      <c r="D59" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="39"/>
-      <c r="G59" s="35" t="s">
-        <v>73</v>
+      <c r="C59" s="40"/>
+      <c r="D59" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="38"/>
+      <c r="G59" s="34" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C60" s="41"/>
-      <c r="D60" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" s="39"/>
-      <c r="G60" s="35" t="s">
-        <v>74</v>
+      <c r="C60" s="40"/>
+      <c r="D60" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="38"/>
+      <c r="G60" s="34" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="3:39" ht="7.5" customHeight="1"/>
     <row r="62" spans="3:39" ht="10.5" customHeight="1">
-      <c r="C62" s="41"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="39"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="38"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
     </row>
     <row r="63" spans="3:39" ht="4.5" customHeight="1" thickBot="1">
-      <c r="C63" s="41"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="39"/>
-    </row>
-    <row r="64" spans="3:39" s="36" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C64" s="42"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="38"/>
+    </row>
+    <row r="64" spans="3:39" s="35" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C64" s="41"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="39"/>
       <c r="G64" s="68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H64" s="68"/>
       <c r="I64" s="68"/>
@@ -7361,55 +7363,55 @@
       <c r="AJ64" s="68"/>
       <c r="AK64" s="68"/>
       <c r="AL64" s="68"/>
-      <c r="AM64" s="45"/>
+      <c r="AM64" s="44"/>
     </row>
     <row r="65" spans="3:7" ht="5.25" customHeight="1" thickTop="1">
-      <c r="C65" s="41"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="39"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="41"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="39"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="38"/>
     </row>
     <row r="67" spans="3:7" ht="10.5" customHeight="1">
-      <c r="C67" s="41"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="39"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="38"/>
     </row>
     <row r="68" spans="3:7" ht="10.5" customHeight="1">
-      <c r="C68" s="41"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="39"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="38"/>
     </row>
     <row r="69" spans="3:7" ht="10.5" customHeight="1">
-      <c r="C69" s="41"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="39"/>
-      <c r="G69" s="35" t="s">
-        <v>64</v>
+      <c r="C69" s="40"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="38"/>
+      <c r="G69" s="34" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="3:7" ht="10.5" customHeight="1">
-      <c r="C70" s="41"/>
-      <c r="D70" s="44" t="b">
+      <c r="C70" s="40"/>
+      <c r="D70" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E70" s="39"/>
-      <c r="G70" s="35" t="s">
-        <v>65</v>
+      <c r="E70" s="38"/>
+      <c r="G70" s="34" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G54:AL54"/>
+    <mergeCell ref="G64:AL64"/>
     <mergeCell ref="G4:AL4"/>
     <mergeCell ref="G14:AL14"/>
     <mergeCell ref="G24:AL24"/>
     <mergeCell ref="G34:AL34"/>
     <mergeCell ref="G44:AL44"/>
-    <mergeCell ref="G54:AL54"/>
-    <mergeCell ref="G64:AL64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
